--- a/Process Results/Unified_IBNP_PEN.xlsx
+++ b/Process Results/Unified_IBNP_PEN.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.09584116999855304</v>
+        <v>0.09584116999855302</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0825265057445929</v>
+        <v>0.08252650574459289</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.08694727705032122</v>
+        <v>0.08694727705032118</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.08868688604592107</v>
+        <v>0.08868688604592105</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,13 +3765,13 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7695885423608188</v>
+        <v>0.7695885423608186</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6245046949334691</v>
+        <v>0.6245046949334689</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5842132765898829</v>
+        <v>0.5842132765898826</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8960121962802933</v>
+        <v>0.8960121962802932</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7619480982495257</v>
+        <v>0.7619480982495256</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7285821445028975</v>
+        <v>0.7285821445028973</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8235598780220021</v>
+        <v>0.8235598780220019</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9182849628540882</v>
+        <v>0.918284962854088</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8089462773329376</v>
+        <v>0.8089462773329374</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.7803831683518496</v>
+        <v>0.7803831683518494</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.8601548940849333</v>
+        <v>0.8601548940849331</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9235391148176023</v>
+        <v>0.9235391148176022</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8332532169230922</v>
+        <v>0.833253216923092</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8052316003704377</v>
+        <v>0.8052316003704375</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8760761582031517</v>
+        <v>0.8760761582031514</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3920,10 +3920,10 @@
         <v>0.9278906663718908</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8699612521750343</v>
+        <v>0.8699612521750339</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8686791995144943</v>
+        <v>0.868679199514494</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
@@ -3958,17 +3958,17 @@
         <v>0.963612308315829</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9172739175703152</v>
+        <v>0.9172739175703148</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.8998704136760663</v>
+        <v>0.899870413676066</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9398723058343454</v>
+        <v>0.9398723058343452</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3996,17 +3996,17 @@
         <v>0.983258144141741</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9433711096331212</v>
+        <v>0.9433711096331208</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9266953173445395</v>
+        <v>0.926695317344539</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9629017359488204</v>
+        <v>0.9629017359488201</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4034,10 +4034,10 @@
         <v>0.983640467305846</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9438809029373814</v>
+        <v>0.9438809029373809</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9345029517414938</v>
+        <v>0.9345029517414934</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
@@ -4072,17 +4072,17 @@
         <v>0.9837284912651355</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9515519574905729</v>
+        <v>0.9515519574905725</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9500784921410932</v>
+        <v>0.9500784921410929</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9673727361886331</v>
+        <v>0.9673727361886328</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4110,10 +4110,10 @@
         <v>0.9847004576117897</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9672230712851215</v>
+        <v>0.9672230712851211</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9581151900615875</v>
+        <v>0.9581151900615873</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
@@ -4148,17 +4148,17 @@
         <v>0.9847017587241597</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9672618938872752</v>
+        <v>0.9672618938872749</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.966358531226263</v>
+        <v>0.9663585312262628</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9759039178658955</v>
+        <v>0.975903917865895</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4186,17 +4186,17 @@
         <v>0.9857400199392311</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9682139408472976</v>
+        <v>0.9682139408472972</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9709101457259391</v>
+        <v>0.9709101457259389</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9768983799107297</v>
+        <v>0.9768983799107295</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4224,7 +4224,7 @@
         <v>0.9857400199392311</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9683476731239152</v>
+        <v>0.9683476731239148</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0.9710431491826478</v>
@@ -4262,17 +4262,17 @@
         <v>0.9989570992604956</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.973859534556252</v>
+        <v>0.9738595345562515</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9777802753771302</v>
+        <v>0.97778027537713</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9862486751699359</v>
+        <v>0.9862486751699356</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4300,10 +4300,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9859730715294078</v>
+        <v>0.9859730715294076</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9860766674871709</v>
+        <v>0.9860766674871707</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
@@ -4338,10 +4338,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9859730715294078</v>
+        <v>0.9859730715294076</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9860766674871709</v>
+        <v>0.9860766674871707</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
@@ -5310,7 +5310,7 @@
         <v>1.105277873462036</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.000360711056749</v>
+        <v>1.00036071105675</v>
       </c>
       <c r="L44" s="4" t="n">
         <v>1.000503038312295</v>
@@ -5958,7 +5958,7 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>4.925782017374259</v>
+        <v>4.925782017374257</v>
       </c>
       <c r="C53" s="4" t="n">
         <v>1.254838471336082</v>
@@ -6704,31 +6704,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.07841525284919619</v>
+        <v>0.07841525284919616</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.08694727705032122</v>
+        <v>0.08694727705032118</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.0825265057445929</v>
+        <v>0.08252650574459289</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.09584116999855304</v>
+        <v>0.09584116999855302</v>
       </c>
       <c r="F2" s="34" t="n">
         <v>0.005738756111499172</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.06832809439109995</v>
+        <v>0.06832809439109994</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.06816931521245305</v>
+        <v>0.06816931521245304</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.08557973098203528</v>
+        <v>0.08557973098203531</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.08868688604592107</v>
+        <v>0.08868688604592105</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
@@ -6767,28 +6767,28 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.4920558496550004</v>
+        <v>0.4920558496550003</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.5842132765898829</v>
+        <v>0.5842132765898826</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.6245046949334691</v>
+        <v>0.6245046949334689</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.7695885423608188</v>
+        <v>0.7695885423608186</v>
       </c>
       <c r="F3" s="34" t="n">
         <v>0.04259998130718335</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.5685339644412123</v>
+        <v>0.5685339644412122</v>
       </c>
       <c r="H3" s="34" t="n">
         <v>0.5864596837357112</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.7670418006832481</v>
+        <v>0.7670418006832485</v>
       </c>
       <c r="J3" s="34" t="n">
         <v>0.6894971512868489</v>
@@ -6831,31 +6831,31 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.6310431656196775</v>
+        <v>0.6310431656196774</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.7285821445028975</v>
+        <v>0.7285821445028973</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.7619480982495257</v>
+        <v>0.7619480982495256</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.8960121962802933</v>
+        <v>0.8960121962802932</v>
       </c>
       <c r="F4" s="34" t="n">
         <v>0.05556207878661727</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.7232298326258325</v>
+        <v>0.7232298326258324</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.7429144368047748</v>
+        <v>0.7429144368047745</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.8955827676085226</v>
+        <v>0.8955827676085231</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.8235598780220021</v>
+        <v>0.8235598780220019</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
@@ -6895,31 +6895,31 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.7227125344880496</v>
+        <v>0.7227125344880494</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.7803831683518496</v>
+        <v>0.7803831683518494</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.8089462773329376</v>
+        <v>0.8089462773329374</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.9182849628540882</v>
+        <v>0.918284962854088</v>
       </c>
       <c r="F5" s="34" t="n">
         <v>0.5481482632790491</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.7789336895230159</v>
+        <v>0.7789336895230158</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.7983191240709258</v>
+        <v>0.7983191240709256</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.9183683178703849</v>
+        <v>0.9183683178703852</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.8601548940849333</v>
+        <v>0.8601548940849331</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
@@ -6959,31 +6959,31 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.7865262118852199</v>
+        <v>0.7865262118852198</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.8052316003704377</v>
+        <v>0.8052316003704375</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.8332532169230922</v>
+        <v>0.833253216923092</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9235391148176023</v>
+        <v>0.9235391148176022</v>
       </c>
       <c r="F6" s="34" t="n">
         <v>0.7874553736819836</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.8054902771014398</v>
+        <v>0.8054902771014396</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.8269789371013039</v>
+        <v>0.8269789371013038</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.923793452967774</v>
+        <v>0.9237934529677745</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.8760761582031517</v>
+        <v>0.8760761582031514</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
@@ -7023,13 +7023,13 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.8568623437175107</v>
+        <v>0.8568623437175106</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.8686791995144943</v>
+        <v>0.868679199514494</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.8699612521750343</v>
+        <v>0.8699612521750339</v>
       </c>
       <c r="E7" s="34" t="n">
         <v>0.9278906663718908</v>
@@ -7038,13 +7038,13 @@
         <v>0.8554917336720379</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.8661871616426764</v>
+        <v>0.8661871616426762</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.8609569145443706</v>
+        <v>0.8609569145443705</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9284203313182728</v>
+        <v>0.9284203313182733</v>
       </c>
       <c r="J7" s="34" t="n">
         <v>0.8979926741139419</v>
@@ -7087,13 +7087,13 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.8853911612811454</v>
+        <v>0.8853911612811451</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.8998704136760663</v>
+        <v>0.899870413676066</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9172739175703152</v>
+        <v>0.9172739175703148</v>
       </c>
       <c r="E8" s="34" t="n">
         <v>0.963612308315829</v>
@@ -7102,16 +7102,16 @@
         <v>0.8853926804954138</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.8992854697232606</v>
+        <v>0.8992854697232605</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.9083291535356263</v>
+        <v>0.908329153535626</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9640997326729651</v>
+        <v>0.9640997326729654</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9398723058343454</v>
+        <v>0.9398723058343452</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
@@ -7151,31 +7151,31 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9221196998055565</v>
+        <v>0.9221196998055563</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9266953173445395</v>
+        <v>0.926695317344539</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9433711096331212</v>
+        <v>0.9433711096331208</v>
       </c>
       <c r="E9" s="34" t="n">
         <v>0.983258144141741</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9238745151889862</v>
+        <v>0.923874515188986</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9288396303624279</v>
+        <v>0.9288396303624277</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9411326812658367</v>
+        <v>0.9411326812658366</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9841197360311746</v>
+        <v>0.9841197360311749</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9629017359488204</v>
+        <v>0.9629017359488201</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
@@ -7215,28 +7215,28 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9372695727278761</v>
+        <v>0.9372695727278759</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9345029517414938</v>
+        <v>0.9345029517414934</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9438809029373814</v>
+        <v>0.9438809029373809</v>
       </c>
       <c r="E10" s="34" t="n">
         <v>0.983640467305846</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9380241427581203</v>
+        <v>0.9380241427581201</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9357762093287254</v>
+        <v>0.9357762093287252</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9416766864518618</v>
+        <v>0.9416766864518615</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.984485078517185</v>
+        <v>0.9844850785171853</v>
       </c>
       <c r="J10" s="34" t="n">
         <v>0.9633506188616036</v>
@@ -7279,31 +7279,31 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9514058981979143</v>
+        <v>0.9514058981979142</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9500784921410932</v>
+        <v>0.9500784921410929</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9515519574905729</v>
+        <v>0.9515519574905725</v>
       </c>
       <c r="E11" s="34" t="n">
         <v>0.9837284912651355</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9513462105564726</v>
+        <v>0.9513462105564724</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9500025387510035</v>
+        <v>0.9500025387510033</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9523584313708041</v>
+        <v>0.9523584313708039</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9845603054472087</v>
+        <v>0.984560305447209</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9673727361886331</v>
+        <v>0.9673727361886328</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
@@ -7313,7 +7313,7 @@
         <v>1.00765013009661</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.008458983112419</v>
+        <v>1.00845898311242</v>
       </c>
       <c r="P11" s="22" t="n">
         <v>1.016469004841182</v>
@@ -7343,28 +7343,28 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9586842770938104</v>
+        <v>0.9586842770938102</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.9581151900615875</v>
+        <v>0.9581151900615873</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9672230712851215</v>
+        <v>0.9672230712851211</v>
       </c>
       <c r="E12" s="34" t="n">
         <v>0.9847004576117897</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9592786153846041</v>
+        <v>0.959278615384604</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.958766687718097</v>
+        <v>0.9587666877180968</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9671900557920141</v>
+        <v>0.9671900557920139</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9853388265380923</v>
+        <v>0.9853388265380925</v>
       </c>
       <c r="J12" s="34" t="n">
         <v>0.9758835188029962</v>
@@ -7407,31 +7407,31 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.966358531226263</v>
+        <v>0.9663585312262628</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.966358531226263</v>
+        <v>0.9663585312262628</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9672618938872752</v>
+        <v>0.9672618938872749</v>
       </c>
       <c r="E13" s="34" t="n">
         <v>0.9847017587241597</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9665587704137145</v>
+        <v>0.9665587704137143</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9665587704137145</v>
+        <v>0.9665587704137143</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9672306526807501</v>
+        <v>0.9672306526807499</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9853404366805689</v>
+        <v>0.9853404366805691</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9759039178658955</v>
+        <v>0.975903917865895</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
@@ -7471,31 +7471,31 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9709101457259391</v>
+        <v>0.9709101457259389</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9709101457259391</v>
+        <v>0.9709101457259389</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9682139408472976</v>
+        <v>0.9682139408472972</v>
       </c>
       <c r="E14" s="34" t="n">
         <v>0.9857400199392311</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9710388019010567</v>
+        <v>0.9710388019010566</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9710388019010567</v>
+        <v>0.9710388019010566</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.968013008312665</v>
+        <v>0.9680130083126648</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9862346523955851</v>
+        <v>0.9862346523955853</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9768983799107297</v>
+        <v>0.9768983799107295</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
@@ -7541,22 +7541,22 @@
         <v>0.9710431491826478</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9683476731239152</v>
+        <v>0.9683476731239148</v>
       </c>
       <c r="E15" s="34" t="n">
         <v>0.9857400199392311</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.9711534068811716</v>
+        <v>0.9711534068811714</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.9711534068811716</v>
+        <v>0.9711534068811714</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9681091822678576</v>
+        <v>0.9681091822678574</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9862346523955851</v>
+        <v>0.9862346523955853</v>
       </c>
       <c r="J15" s="34" t="n">
         <v>0.9769664462877615</v>
@@ -7566,10 +7566,10 @@
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.006938029685039</v>
+        <v>1.006938029685038</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.006938029685039</v>
+        <v>1.006938029685038</v>
       </c>
       <c r="P15" s="22" t="n">
         <v>1.005692027342365</v>
@@ -7599,31 +7599,31 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9777802753771302</v>
+        <v>0.97778027537713</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9777802753771302</v>
+        <v>0.97778027537713</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.973859534556252</v>
+        <v>0.9738595345562515</v>
       </c>
       <c r="E16" s="34" t="n">
         <v>0.9989570992604956</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9782958987860058</v>
+        <v>0.9782958987860055</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9782958987860058</v>
+        <v>0.9782958987860055</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.9744775890896358</v>
+        <v>0.9744775890896356</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9992099316372858</v>
+        <v>0.999209931637286</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.9862486751699359</v>
+        <v>0.9862486751699356</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
@@ -7663,13 +7663,13 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9860766674871709</v>
+        <v>0.9860766674871707</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9860766674871709</v>
+        <v>0.9860766674871707</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9859730715294078</v>
+        <v>0.9859730715294076</v>
       </c>
       <c r="E17" s="34" t="n">
         <v>1</v>
@@ -7727,13 +7727,13 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9860766674871709</v>
+        <v>0.9860766674871707</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9860766674871709</v>
+        <v>0.9860766674871707</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9859730715294078</v>
+        <v>0.9859730715294076</v>
       </c>
       <c r="E18" s="34" t="n">
         <v>1</v>
@@ -9320,7 +9320,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>66846.51999999999</v>
+        <v>66846.52</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9394,31 +9394,31 @@
         <v>60122.50999999999</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>66452.07999999999</v>
+        <v>66452.08</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>66476.04999999999</v>
+        <v>66476.05</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>66509.48999999999</v>
+        <v>66509.49000000001</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>66648.59999999999</v>
+        <v>66648.60000000001</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>66688.32999999999</v>
+        <v>66688.33</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>66688.32999999999</v>
+        <v>66688.33</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>66846.51999999999</v>
+        <v>66846.52</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>66846.51999999999</v>
+        <v>66846.52</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>66846.51999999999</v>
+        <v>66846.52</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -10549,7 +10549,7 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>4835.889999999999</v>
+        <v>4835.89</v>
       </c>
       <c r="T23" s="22" t="n">
         <v>23820.54</v>

--- a/Process Results/Unified_IBNP_PEN.xlsx
+++ b/Process Results/Unified_IBNP_PEN.xlsx
@@ -3727,20 +3727,20 @@
         <v/>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.09583791127330181</v>
+        <v>0.1018139227608938</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08252308958620885</v>
+        <v>0.08966158713548435</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.08692809679074864</v>
+        <v>0.09589363437535998</v>
       </c>
       <c r="H7" s="4">
         <f>+I7/I8</f>
         <v/>
       </c>
       <c r="I7" s="5" t="n">
-        <v>0.08252308958620885</v>
+        <v>0.08966158713548435</v>
       </c>
       <c r="J7" s="5">
         <f>I7</f>
@@ -3765,20 +3765,20 @@
         <v/>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7695623753428651</v>
+        <v>0.6681267620802719</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6244788437608036</v>
+        <v>0.66453678056179</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5840844012222937</v>
+        <v>0.6165431582974888</v>
       </c>
       <c r="H8" s="4">
         <f>+I8/I9</f>
         <v/>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6244788437608036</v>
+        <v>0.66453678056179</v>
       </c>
       <c r="J8" s="5">
         <f>I8</f>
@@ -3803,20 +3803,20 @@
         <v/>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8959817306925978</v>
+        <v>0.8180286272507682</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7619165576510166</v>
+        <v>0.7919422955848578</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7284214218773526</v>
+        <v>0.7650226547165334</v>
       </c>
       <c r="H9" s="4">
         <f>+I9/I10</f>
         <v/>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7619165576510166</v>
+        <v>0.7919422955848578</v>
       </c>
       <c r="J9" s="5">
         <f>I9</f>
@@ -3841,20 +3841,20 @@
         <v/>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.9182537399631707</v>
+        <v>0.8554113176568087</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8089127912597951</v>
+        <v>0.8412471767278593</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.7802571646326598</v>
+        <v>0.8074091573917596</v>
       </c>
       <c r="H10" s="4">
         <f>+I10/I11</f>
         <v/>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.8089127912597951</v>
+        <v>0.8412471767278593</v>
       </c>
       <c r="J10" s="5">
         <f>I10</f>
@@ -3879,20 +3879,20 @@
         <v/>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9235077132786396</v>
+        <v>0.8610400715504143</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8332187246719379</v>
+        <v>0.8481628640327644</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8051224672839721</v>
+        <v>0.8275050852251139</v>
       </c>
       <c r="H11" s="4">
         <f>+I11/I12</f>
         <v/>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8332187246719379</v>
+        <v>0.8481628640327644</v>
       </c>
       <c r="J11" s="5">
         <f>I11</f>
@@ -3917,20 +3917,20 @@
         <v/>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9278591168744782</v>
+        <v>0.8629897937772629</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8699252404064687</v>
+        <v>0.8667071116712134</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8686133739807603</v>
+        <v>0.8714081700220495</v>
       </c>
       <c r="H12" s="4">
         <f>+I12/I13</f>
         <v/>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8699252404064687</v>
+        <v>0.8667071116712134</v>
       </c>
       <c r="J12" s="5">
         <f>I12</f>
@@ -3955,20 +3955,20 @@
         <v/>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9635795442358249</v>
+        <v>0.9354342009602087</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.9172359473090556</v>
+        <v>0.9278021466415984</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.899824822834576</v>
+        <v>0.9159828718077681</v>
       </c>
       <c r="H13" s="4">
         <f>+I13/I14</f>
         <v/>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0.9172359473090556</v>
+        <v>0.9278021466415984</v>
       </c>
       <c r="J13" s="5">
         <f>I13</f>
@@ -3993,20 +3993,20 @@
         <v/>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9832247120775991</v>
+        <v>0.9559793705339878</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9433320590869197</v>
+        <v>0.9458922369494803</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9266663261658631</v>
+        <v>0.9391425189855713</v>
       </c>
       <c r="H14" s="4">
         <f>+I14/I15</f>
         <v/>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9433320590869197</v>
+        <v>0.9458922369494803</v>
       </c>
       <c r="J14" s="5">
         <f>I14</f>
@@ -4031,20 +4031,20 @@
         <v/>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9836070222422161</v>
+        <v>0.9562466443975914</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9438418312884486</v>
+        <v>0.9464458894465623</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9344785088575199</v>
+        <v>0.9418744531551289</v>
       </c>
       <c r="H15" s="4">
         <f>+I15/I16</f>
         <v/>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9438418312884486</v>
+        <v>0.9464458894465623</v>
       </c>
       <c r="J15" s="5">
         <f>I15</f>
@@ -4069,20 +4069,20 @@
         <v/>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.9836950432085758</v>
+        <v>0.9563253553712301</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9515235696351431</v>
+        <v>0.9541177042478438</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>0.9500629597376344</v>
+        <v>0.9578356991362473</v>
       </c>
       <c r="H16" s="4">
         <f>+I16/I17</f>
         <v/>
       </c>
       <c r="I16" s="5" t="n">
-        <v>0.9515235696351431</v>
+        <v>0.9541177042478438</v>
       </c>
       <c r="J16" s="5">
         <f>I16</f>
@@ -4107,20 +4107,20 @@
         <v/>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9846669765071017</v>
+        <v>0.9725575979329231</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9672163206192816</v>
+        <v>0.96984893293462</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.958104098219197</v>
+        <v>0.9692395810694892</v>
       </c>
       <c r="H17" s="4">
         <f>+I17/I18</f>
         <v/>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9672163206192816</v>
+        <v>0.96984893293462</v>
       </c>
       <c r="J17" s="5">
         <f>I17</f>
@@ -4145,20 +4145,20 @@
         <v/>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9846682775752321</v>
+        <v>0.972718834707472</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9672551947739398</v>
+        <v>0.969959245184603</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9663519617163723</v>
+        <v>0.9725895702104835</v>
       </c>
       <c r="H18" s="4">
         <f>+I18/I19</f>
         <v/>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9672551947739398</v>
+        <v>0.969959245184603</v>
       </c>
       <c r="J18" s="5">
         <f>I18</f>
@@ -4183,20 +4183,20 @@
         <v/>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9857092891873892</v>
+        <v>0.972718834707472</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.9682083259578926</v>
+        <v>0.9704774900421325</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9709059922487037</v>
+        <v>0.973373679997618</v>
       </c>
       <c r="H19" s="4">
         <f>+I19/I20</f>
         <v/>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.9682083259578926</v>
+        <v>0.9704774900421325</v>
       </c>
       <c r="J19" s="5">
         <f>I19</f>
@@ -4221,20 +4221,20 @@
         <v/>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9857092891873892</v>
+        <v>0.972718834707472</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9683421982785319</v>
+        <v>0.9706233537418186</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.97103906980649</v>
+        <v>0.9735129985434703</v>
       </c>
       <c r="H20" s="4">
         <f>+I20/I21</f>
         <v/>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.9683421982785319</v>
+        <v>0.9706233537418186</v>
       </c>
       <c r="J20" s="5">
         <f>I20</f>
@@ -4259,20 +4259,20 @@
         <v/>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9989570992604956</v>
+        <v>0.9863954681572945</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.973859534556252</v>
+        <v>0.9764521588837639</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9777802753771302</v>
+        <v>0.9803623423919308</v>
       </c>
       <c r="H21" s="4">
         <f>+I21/I22</f>
         <v/>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.973859534556252</v>
+        <v>0.9764521588837639</v>
       </c>
       <c r="J21" s="5">
         <f>I21</f>
@@ -4297,20 +4297,20 @@
         <v/>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1</v>
+        <v>0.9863954681572945</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9859730715294078</v>
+        <v>0.9886577263241857</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.9860766674871709</v>
+        <v>0.9887555516118696</v>
       </c>
       <c r="H22" s="4">
         <f>+I22/I23</f>
         <v/>
       </c>
       <c r="I22" s="5" t="n">
-        <v>0.9859730715294078</v>
+        <v>0.9886577263241857</v>
       </c>
       <c r="J22" s="5">
         <f>I22</f>
@@ -4335,20 +4335,20 @@
         <v/>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1</v>
+        <v>0.9863954681572945</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9859730715294078</v>
+        <v>0.9886577263241857</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9860766674871709</v>
+        <v>0.9887555516118696</v>
       </c>
       <c r="H23" s="4">
         <f>+I23/I24</f>
         <v/>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9859730715294078</v>
+        <v>0.9886577263241857</v>
       </c>
       <c r="J23" s="5">
         <f>I23</f>
@@ -4373,20 +4373,20 @@
         <v/>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1</v>
+        <v>0.9863954681572945</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9867574581275412</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9867574581275412</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="H24" s="4">
         <f>+I24/I25</f>
         <v/>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9867574581275412</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="J24" s="5">
         <f>I24</f>
@@ -4411,20 +4411,20 @@
         <v/>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1</v>
+        <v>0.9863954681572945</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.9919435914442148</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>0.9919435914442148</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="H25" s="4">
         <f>+I25/I26</f>
         <v/>
       </c>
       <c r="I25" s="5" t="n">
-        <v>0.9919435914442148</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="J25" s="5">
         <f>I25</f>
@@ -4449,20 +4449,20 @@
         <v/>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1</v>
+        <v>0.9863954681572945</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.9919435914442148</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9919435914442148</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="H26" s="4">
         <f>+I26/I27</f>
         <v/>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.9919435914442148</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="J26" s="5">
         <f>I26</f>
@@ -4833,46 +4833,46 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>9.918716799373149</v>
+        <v>4.597432083016995</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>1.182373037042545</v>
+        <v>1.196553924445357</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>1.156327877443073</v>
+        <v>1.176512826864016</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>1.001430357048275</v>
+        <v>1.104711550844658</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>1.287803583908642</v>
+        <v>1.013211518357779</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>1.03186743582434</v>
+        <v>1.054142740155968</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>1.002192705667257</v>
+        <v>0.9988264239219699</v>
       </c>
       <c r="I38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>1</v>
+        <v>1.028693987418527</v>
       </c>
       <c r="K38" s="4" t="n">
-        <v>1</v>
+        <v>1.006028435371039</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>1.001133243865967</v>
+        <v>1.064537684188103</v>
       </c>
       <c r="M38" s="4" t="n">
-        <v>1.046947534155589</v>
+        <v>1.00306928047863</v>
       </c>
       <c r="N38" s="4" t="n">
-        <v>1</v>
+        <v>1.000345457449509</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>1</v>
+        <v>1.001852190114346</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>1</v>
@@ -4884,13 +4884,13 @@
         <v>1</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>1.032675541730299</v>
+        <v>1</v>
       </c>
       <c r="T38" s="4" t="n">
         <v>1</v>
       </c>
       <c r="U38" s="4" t="n">
-        <v>1.031394013907156</v>
+        <v>1</v>
       </c>
       <c r="V38" s="4" t="n">
         <v>1</v>
@@ -4908,49 +4908,49 @@
         <v/>
       </c>
       <c r="B39" s="4" t="n">
-        <v>4.597432083016995</v>
+        <v>7.574017847779515</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>1.196553924445357</v>
+        <v>1.206869632841791</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>1.176512826864016</v>
+        <v>1.025116549432065</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>1.104711550844658</v>
+        <v>1.133846562152097</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>1.013211518357779</v>
+        <v>1</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>1.054142740155968</v>
+        <v>1</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>0.9988264239219699</v>
+        <v>1.038732856937727</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>1</v>
+        <v>1.141588353381399</v>
       </c>
       <c r="J39" s="4" t="n">
-        <v>1.028693987418527</v>
+        <v>1.001907536125266</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>1.006028435371039</v>
+        <v>1.000230248797276</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1.064537684188103</v>
+        <v>1.001885271918783</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>1.00306928047863</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N39" s="4" t="n">
-        <v>1.000345457449509</v>
+        <v>1.000356684770014</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>1.001852190114346</v>
+        <v>1.032225150234663</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>1</v>
+        <v>1.000915274241052</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>1</v>
@@ -4983,55 +4983,55 @@
         <v/>
       </c>
       <c r="B40" s="4" t="n">
-        <v>7.574017847779515</v>
+        <v>7.16281408319876</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>1.206869632841791</v>
+        <v>1.589434091114591</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>1.025116549432065</v>
+        <v>1.30571481502967</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>1.133846562152097</v>
+        <v>1.049572641733063</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>1</v>
+        <v>1.043020111390701</v>
       </c>
       <c r="G40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>1.038732856937727</v>
+        <v>1.205760161791648</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>1.141588353381399</v>
+        <v>1.013844062175698</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>1.001907536125266</v>
+        <v>1.000249312890247</v>
       </c>
       <c r="K40" s="4" t="n">
-        <v>1.000230248797276</v>
+        <v>1.000117558987202</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>1.001885271918783</v>
+        <v>1.001761036452919</v>
       </c>
       <c r="M40" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000185091380854</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>1.000356684770014</v>
+        <v>1</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>1.032225150234663</v>
+        <v>1</v>
       </c>
       <c r="P40" s="4" t="n">
-        <v>1.000915274241052</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>1</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>1</v>
+        <v>1.005509189176252</v>
       </c>
       <c r="S40" s="4" t="n">
         <v>1</v>
@@ -5058,40 +5058,40 @@
         <v/>
       </c>
       <c r="B41" s="4" t="n">
-        <v>7.16281408319876</v>
+        <v>7.697706118470323</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>1.589434091114591</v>
+        <v>1.922431095304499</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>1.30571481502967</v>
+        <v>1.173628000819364</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>1.049572641733063</v>
+        <v>1.000552813038083</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>1.043020111390701</v>
+        <v>1.037116060800919</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>1</v>
+        <v>1.05731547056427</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>1.205760161791648</v>
+        <v>1.098990520730768</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>1.013844062175698</v>
+        <v>1.0530114559224</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>1.000249312890247</v>
+        <v>1.001679569963963</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>1.000117558987202</v>
+        <v>1.016554781430028</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>1.001761036452919</v>
+        <v>1.028312191864608</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>1.000185091380854</v>
+        <v>1</v>
       </c>
       <c r="N41" s="4" t="n">
         <v>1</v>
@@ -5100,13 +5100,13 @@
         <v>1</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>1</v>
+        <v>1.031314267749225</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>1</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>1.005509189176252</v>
+        <v>1</v>
       </c>
       <c r="S41" s="4" t="n">
         <v>1</v>
@@ -5115,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="U41" s="4" t="n">
-        <v>1</v>
+        <v>1.036607740407191</v>
       </c>
       <c r="V41" s="4" t="n">
         <v/>
@@ -5133,40 +5133,40 @@
         <v/>
       </c>
       <c r="B42" s="4" t="n">
-        <v>7.697706118470323</v>
+        <v/>
       </c>
       <c r="C42" s="4" t="n">
-        <v>1.922431095304499</v>
+        <v>1.441188082141694</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>1.173628000819364</v>
+        <v>1.067519703512068</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>1.000552813038083</v>
+        <v>1.035220419953365</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>1.037116060800919</v>
+        <v>1.003664169870631</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>1.05731547056427</v>
+        <v>1.027268176713055</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>1.098990520730768</v>
+        <v>1.09533042315404</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>1.0530114559224</v>
+        <v>1.001161919207601</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>1.001679569963963</v>
+        <v>1.00167233118838</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>1.016554781430028</v>
+        <v>1</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>1.028312191864608</v>
+        <v>1.000275258727036</v>
       </c>
       <c r="M42" s="4" t="n">
-        <v>1</v>
+        <v>1.000565317165559</v>
       </c>
       <c r="N42" s="4" t="n">
         <v>1</v>
@@ -5175,7 +5175,7 @@
         <v>1</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>1.031314267749225</v>
+        <v>1.036846819777425</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>1</v>
@@ -5208,49 +5208,49 @@
         <v/>
       </c>
       <c r="B43" s="4" t="n">
-        <v/>
+        <v>3.860099902933894</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>1.441188082141694</v>
+        <v>1.140639405139219</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>1.067519703512068</v>
+        <v>1.00913339160856</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>1.035220419953365</v>
+        <v>1.038879702341573</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>1.003664169870631</v>
+        <v>1.352542204196834</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>1.027268176713055</v>
+        <v>1.007879804330739</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>1.09533042315404</v>
+        <v>1.029454502512536</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1.001161919207601</v>
+        <v>0.9824442001690609</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>1.00167233118838</v>
+        <v>1.105277873462036</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>1</v>
+        <v>1.000360711056749</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>1.000275258727036</v>
+        <v>1.000503038312295</v>
       </c>
       <c r="M43" s="4" t="n">
-        <v>1.000565317165559</v>
+        <v>1.002091581216455</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>1</v>
+        <v>1.000596111546229</v>
       </c>
       <c r="O43" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>1.036846819777425</v>
+        <v>1.002372079192866</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>1</v>
@@ -5283,49 +5283,49 @@
         <v/>
       </c>
       <c r="B44" s="4" t="n">
-        <v>3.860099902933894</v>
+        <v>1.279841653158667</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>1.140639405139219</v>
+        <v>1.140852108732176</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>1.00913339160856</v>
+        <v>2.938593642618172</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>1.038879702341573</v>
+        <v>8.958137586479847</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>1.352542204196834</v>
+        <v>1.271280549608212</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>1.007879804330739</v>
+        <v>1.048070975413204</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>1.029454502512536</v>
+        <v>1.004485285932403</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>0.9824442001690609</v>
+        <v>1.037242279311522</v>
       </c>
       <c r="J44" s="4" t="n">
-        <v>1.105277873462036</v>
+        <v>1.000759268490068</v>
       </c>
       <c r="K44" s="4" t="n">
-        <v>1.000360711056749</v>
+        <v>1</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>1.000503038312295</v>
+        <v>1</v>
       </c>
       <c r="M44" s="4" t="n">
-        <v>1.002091581216455</v>
+        <v>1.000039029088442</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>1.000596111546229</v>
+        <v>1</v>
       </c>
       <c r="O44" s="4" t="n">
         <v>1</v>
       </c>
       <c r="P44" s="4" t="n">
-        <v>1.002372079192866</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>1</v>
@@ -5358,46 +5358,46 @@
         <v/>
       </c>
       <c r="B45" s="4" t="n">
-        <v>1.279841653158667</v>
+        <v/>
       </c>
       <c r="C45" s="4" t="n">
-        <v>1.140852108732176</v>
+        <v/>
       </c>
       <c r="D45" s="4" t="n">
-        <v>2.938593642618172</v>
+        <v>183.3989189860835</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>8.958137586479845</v>
+        <v>1.093627381402844</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>1.271280549608212</v>
+        <v>1.055045013344171</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>1.048070975413204</v>
+        <v>1.009124266532632</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>1.004485285932403</v>
+        <v>1.003965483131422</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>1.037242279311522</v>
+        <v>1.000884145369611</v>
       </c>
       <c r="J45" s="4" t="n">
-        <v>1.000759268490068</v>
+        <v>1.004734149603297</v>
       </c>
       <c r="K45" s="4" t="n">
-        <v>1</v>
+        <v>1.04791925057749</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1</v>
+        <v>1.000246942029946</v>
       </c>
       <c r="M45" s="4" t="n">
-        <v>1.000039029088442</v>
+        <v>1</v>
       </c>
       <c r="N45" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>1</v>
+        <v>1.000964430706836</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>1</v>
@@ -5439,40 +5439,40 @@
         <v/>
       </c>
       <c r="D46" s="4" t="n">
-        <v>183.3989189860835</v>
+        <v>1.270291541104063</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>1.093627381402844</v>
+        <v>1.051863579009912</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>1.055045013344171</v>
+        <v>1.057232712565741</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>1.009124266532632</v>
+        <v>1.010850560059401</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1.003965483131422</v>
+        <v>1.040247672754442</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>1.000884145369611</v>
+        <v>1.011484434963138</v>
       </c>
       <c r="J46" s="4" t="n">
-        <v>1.004734149603297</v>
+        <v>1.001160728590352</v>
       </c>
       <c r="K46" s="4" t="n">
-        <v>1.04791925057749</v>
+        <v>1.002749037882858</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>1.000246942029946</v>
+        <v>1</v>
       </c>
       <c r="M46" s="4" t="n">
-        <v>1</v>
+        <v>1.002741501391677</v>
       </c>
       <c r="N46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>1.000964430706836</v>
+        <v>1.038771885005712</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>1</v>
@@ -5511,43 +5511,43 @@
         <v/>
       </c>
       <c r="C47" s="4" t="n">
-        <v/>
+        <v>1.345194539230278</v>
       </c>
       <c r="D47" s="4" t="n">
-        <v>1.270291541104063</v>
+        <v>1.032067610383686</v>
       </c>
       <c r="E47" s="4" t="n">
-        <v>1.051863579009912</v>
+        <v>1.011352232957571</v>
       </c>
       <c r="F47" s="4" t="n">
-        <v>1.057232712565741</v>
+        <v>1.101195942071213</v>
       </c>
       <c r="G47" s="4" t="n">
-        <v>1.010850560059401</v>
+        <v>1.04501688196924</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>1.040247672754442</v>
+        <v>1.004493997575568</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.011484434963138</v>
+        <v>1</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>1.001160728590352</v>
+        <v>1</v>
       </c>
       <c r="K47" s="4" t="n">
-        <v>1.002749037882858</v>
+        <v>1.040420012515608</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M47" s="4" t="n">
-        <v>1.002741501391677</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N47" s="4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>1.038771885005712</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P47" t="n">
         <v/>
@@ -5583,37 +5583,37 @@
         <v/>
       </c>
       <c r="B48" s="4" t="n">
-        <v/>
+        <v>17.69240595453631</v>
       </c>
       <c r="C48" s="4" t="n">
-        <v>1.345194539230278</v>
+        <v>1.143686763741921</v>
       </c>
       <c r="D48" s="4" t="n">
-        <v>1.032067610383686</v>
+        <v>1.02290078992067</v>
       </c>
       <c r="E48" s="4" t="n">
-        <v>1.011352232957571</v>
+        <v>1.016141094989724</v>
       </c>
       <c r="F48" s="4" t="n">
-        <v>1.101195942071213</v>
+        <v>1.022281619469289</v>
       </c>
       <c r="G48" s="4" t="n">
-        <v>1.04501688196924</v>
+        <v>1.007538839173146</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>1.004493997575568</v>
+        <v>1.154231856441344</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000067581619891</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.066678036773984</v>
       </c>
       <c r="K48" s="4" t="n">
-        <v>1.040420012515608</v>
+        <v>1</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>1</v>
+        <v>1.000004902300914</v>
       </c>
       <c r="M48" s="4" t="n">
         <v>1</v>
@@ -5658,37 +5658,37 @@
         <v/>
       </c>
       <c r="B49" s="4" t="n">
-        <v>17.69240595453631</v>
+        <v>6.661539000630738</v>
       </c>
       <c r="C49" s="4" t="n">
-        <v>1.143686763741921</v>
+        <v>1.442360091948219</v>
       </c>
       <c r="D49" s="4" t="n">
-        <v>1.02290078992067</v>
+        <v>1.060675904964483</v>
       </c>
       <c r="E49" s="4" t="n">
-        <v>1.016141094989724</v>
+        <v>1.007900814966292</v>
       </c>
       <c r="F49" s="4" t="n">
-        <v>1.022281619469289</v>
+        <v>1.151136516275391</v>
       </c>
       <c r="G49" s="4" t="n">
-        <v>1.007538839173146</v>
+        <v>1.075715234025403</v>
       </c>
       <c r="H49" s="4" t="n">
-        <v>1.154231856441344</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>1.000067581619891</v>
+        <v>1.002286899280011</v>
       </c>
       <c r="J49" s="4" t="n">
-        <v>1.066678036773984</v>
+        <v>1</v>
       </c>
       <c r="K49" s="4" t="n">
         <v>1</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>1.000004902300914</v>
+        <v>1</v>
       </c>
       <c r="M49" s="4" t="n">
         <v>1</v>
@@ -5733,37 +5733,37 @@
         <v/>
       </c>
       <c r="B50" s="4" t="n">
-        <v>6.661539000630738</v>
+        <v>3.943376728669497</v>
       </c>
       <c r="C50" s="4" t="n">
-        <v>1.442360091948219</v>
+        <v>1.368827284026037</v>
       </c>
       <c r="D50" s="4" t="n">
-        <v>1.060675904964483</v>
+        <v>1.030049738687219</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1.007900814966292</v>
+        <v>1.013260877944882</v>
       </c>
       <c r="F50" s="4" t="n">
-        <v>1.151136516275391</v>
+        <v>1.118887699462399</v>
       </c>
       <c r="G50" s="4" t="n">
-        <v>1.075715234025403</v>
+        <v>1.045680216607887</v>
       </c>
       <c r="H50" s="4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1.000156523553896</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>1.002286899280011</v>
+        <v>1.000405486287431</v>
       </c>
       <c r="J50" s="4" t="n">
-        <v>1</v>
+        <v>1.00022923739018</v>
       </c>
       <c r="K50" s="4" t="n">
-        <v>1</v>
+        <v>1.002372189148525</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>1</v>
+        <v>1.000394219817875</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -5808,34 +5808,34 @@
         <v/>
       </c>
       <c r="B51" s="4" t="n">
-        <v>3.943376728669497</v>
+        <v>5.680279809751619</v>
       </c>
       <c r="C51" s="4" t="n">
-        <v>1.368827284026037</v>
+        <v>1.109575753183651</v>
       </c>
       <c r="D51" s="4" t="n">
-        <v>1.030049738687219</v>
+        <v>1.063608280634242</v>
       </c>
       <c r="E51" s="4" t="n">
-        <v>1.013260877944882</v>
+        <v>1.175429963400573</v>
       </c>
       <c r="F51" s="4" t="n">
-        <v>1.118887699462399</v>
+        <v>1.006064330616857</v>
       </c>
       <c r="G51" s="4" t="n">
-        <v>1.045680216607887</v>
+        <v>1.093450529956609</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>1.000156523553896</v>
+        <v>1.055262561744221</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>1.000405486287431</v>
+        <v>1</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>1.00022923739018</v>
+        <v>1</v>
       </c>
       <c r="K51" s="4" t="n">
-        <v>1.002372189148525</v>
+        <v>1.049624305693021</v>
       </c>
       <c r="L51" t="n">
         <v/>
@@ -5883,28 +5883,28 @@
         <v/>
       </c>
       <c r="B52" s="4" t="n">
-        <v>5.680279809751619</v>
+        <v>4.925782017374257</v>
       </c>
       <c r="C52" s="4" t="n">
-        <v>1.109575753183651</v>
+        <v>1.254838471336082</v>
       </c>
       <c r="D52" s="4" t="n">
-        <v>1.063608280634242</v>
+        <v>1.081024243809075</v>
       </c>
       <c r="E52" s="4" t="n">
-        <v>1.175429963400573</v>
+        <v>1.013486597579537</v>
       </c>
       <c r="F52" s="4" t="n">
-        <v>1.006064330616857</v>
+        <v>1.106623151333751</v>
       </c>
       <c r="G52" s="4" t="n">
-        <v>1.093450529956609</v>
+        <v>1.045136128577054</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>1.055262561744221</v>
+        <v>1.001780541407092</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>1</v>
+        <v>1.000708684161423</v>
       </c>
       <c r="J52" s="4" t="n">
         <v>1</v>
@@ -5958,28 +5958,28 @@
         <v/>
       </c>
       <c r="B53" s="4" t="n">
-        <v>4.925782017374257</v>
+        <v>9.608803814525603</v>
       </c>
       <c r="C53" s="4" t="n">
-        <v>1.254838471336082</v>
+        <v>1.742363303583629</v>
       </c>
       <c r="D53" s="4" t="n">
-        <v>1.081843221338379</v>
+        <v>1.196595691549491</v>
       </c>
       <c r="E53" s="4" t="n">
-        <v>1.013476387948283</v>
+        <v>1.008772735445499</v>
       </c>
       <c r="F53" s="4" t="n">
-        <v>1.106543508714009</v>
+        <v>1.008062568575431</v>
       </c>
       <c r="G53" s="4" t="n">
-        <v>1.045105660164043</v>
+        <v>1.069198283611201</v>
       </c>
       <c r="H53" s="4" t="n">
-        <v>1.001779391355282</v>
+        <v>1.005254516901699</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>1.000708227235327</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v/>
@@ -6033,25 +6033,25 @@
         <v/>
       </c>
       <c r="B54" s="4" t="n">
-        <v>9.608803814525603</v>
+        <v/>
       </c>
       <c r="C54" s="4" t="n">
-        <v>1.742363303583629</v>
+        <v>1.078240787125167</v>
       </c>
       <c r="D54" s="4" t="n">
-        <v>1.196595691549491</v>
+        <v>1.092699525719755</v>
       </c>
       <c r="E54" s="4" t="n">
-        <v>1.008772735445499</v>
+        <v>1.008097833832402</v>
       </c>
       <c r="F54" s="4" t="n">
-        <v>1.008062568575431</v>
+        <v>1.003305825790596</v>
       </c>
       <c r="G54" s="4" t="n">
-        <v>1.069198283611201</v>
+        <v>1.000986728405634</v>
       </c>
       <c r="H54" s="4" t="n">
-        <v>1.005254516901699</v>
+        <v>1.068073141131057</v>
       </c>
       <c r="I54" t="n">
         <v/>
@@ -6108,22 +6108,22 @@
         <v/>
       </c>
       <c r="B55" s="4" t="n">
-        <v/>
+        <v>5.208481920188925</v>
       </c>
       <c r="C55" s="4" t="n">
-        <v>1.078240787125167</v>
+        <v>1.277325674945881</v>
       </c>
       <c r="D55" s="4" t="n">
-        <v>1.092699525719755</v>
+        <v>1.01754066986866</v>
       </c>
       <c r="E55" s="4" t="n">
-        <v>1.008097833832402</v>
+        <v>1.007419991624692</v>
       </c>
       <c r="F55" s="4" t="n">
-        <v>1.003305825790596</v>
+        <v>1.003657296719901</v>
       </c>
       <c r="G55" s="4" t="n">
-        <v>1.000986728405634</v>
+        <v>1.145391959720528</v>
       </c>
       <c r="H55" t="n">
         <v/>
@@ -6183,19 +6183,19 @@
         <v/>
       </c>
       <c r="B56" s="4" t="n">
-        <v>5.208481920188925</v>
+        <v>10.91777649498058</v>
       </c>
       <c r="C56" s="4" t="n">
-        <v>1.277325674945881</v>
+        <v>1.11343416384024</v>
       </c>
       <c r="D56" s="4" t="n">
-        <v>1.01754066986866</v>
+        <v>1.02348848363803</v>
       </c>
       <c r="E56" s="4" t="n">
-        <v>1.007419991624692</v>
+        <v>1.002204263791268</v>
       </c>
       <c r="F56" s="4" t="n">
-        <v>1.003657296719901</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -6258,16 +6258,16 @@
         <v/>
       </c>
       <c r="B57" s="4" t="n">
-        <v>10.91777649498058</v>
+        <v>13.35986617231091</v>
       </c>
       <c r="C57" s="4" t="n">
-        <v>1.11343416384024</v>
+        <v>1.244513504757562</v>
       </c>
       <c r="D57" s="4" t="n">
-        <v>1.02348848363803</v>
+        <v>1.035297293649187</v>
       </c>
       <c r="E57" s="4" t="n">
-        <v>1.002204263791268</v>
+        <v>1.010361754156177</v>
       </c>
       <c r="F57" t="n">
         <v/>
@@ -6333,13 +6333,13 @@
         <v/>
       </c>
       <c r="B58" s="4" t="n">
-        <v>13.35986617231091</v>
+        <v>8.049493167562723</v>
       </c>
       <c r="C58" s="4" t="n">
-        <v>1.244513504757562</v>
+        <v>1.144792730207487</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>1.035297293649187</v>
+        <v>1.088425180490366</v>
       </c>
       <c r="E58" t="n">
         <v/>
@@ -6408,10 +6408,10 @@
         <v/>
       </c>
       <c r="B59" s="4" t="n">
-        <v>8.049493167562723</v>
+        <v>5.479313662998885</v>
       </c>
       <c r="C59" s="4" t="n">
-        <v>1.144792730207487</v>
+        <v>1.283164639117146</v>
       </c>
       <c r="D59" t="n">
         <v/>
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="B60" s="4" t="n">
-        <v>5.479313662998885</v>
+        <v>6.606463672557182</v>
       </c>
       <c r="C60" t="n">
         <v/>
@@ -6704,61 +6704,61 @@
         <v>1</v>
       </c>
       <c r="B2" s="34" t="n">
-        <v>0.07839928935364739</v>
+        <v>0.08040961123732127</v>
       </c>
       <c r="C2" s="34" t="n">
-        <v>0.08692809679074864</v>
+        <v>0.09589363437535998</v>
       </c>
       <c r="D2" s="34" t="n">
-        <v>0.08252308958620885</v>
+        <v>0.08966158713548435</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.09583791127330181</v>
+        <v>0.1018139227608938</v>
       </c>
       <c r="F2" s="34" t="n">
-        <v>0.00573814939212267</v>
+        <v>0.005913529693709328</v>
       </c>
       <c r="G2" s="34" t="n">
-        <v>0.06830397221644254</v>
+        <v>0.08179992875879126</v>
       </c>
       <c r="H2" s="34" t="n">
-        <v>0.06816578115011655</v>
+        <v>0.07953062216099191</v>
       </c>
       <c r="I2" s="34" t="n">
-        <v>0.0855716692937375</v>
+        <v>0.1002573781157306</v>
       </c>
       <c r="J2" s="34" t="n">
-        <v>0.08252308958620885</v>
+        <v>0.08966158713548435</v>
       </c>
       <c r="M2" s="33" t="n">
         <v>1</v>
       </c>
       <c r="N2" s="22" t="n">
-        <v>6.275001760197019</v>
+        <v>6.145950380281888</v>
       </c>
       <c r="O2" s="22" t="n">
-        <v>6.719167021777648</v>
+        <v>6.429448235157417</v>
       </c>
       <c r="P2" s="22" t="n">
-        <v>7.567322635302371</v>
+        <v>7.411610721965391</v>
       </c>
       <c r="Q2" s="22" t="n">
-        <v>8.02983250697417</v>
+        <v>6.562233768846553</v>
       </c>
       <c r="R2" s="22" t="n">
-        <v>7.423208179525631</v>
+        <v>7.239194116924742</v>
       </c>
       <c r="S2" s="22" t="n">
-        <v>8.320647158502732</v>
+        <v>7.312834223777357</v>
       </c>
       <c r="T2" s="22" t="n">
-        <v>8.602986283608404</v>
+        <v>8.270232515099867</v>
       </c>
       <c r="U2" s="22" t="n">
-        <v>8.962891000957505</v>
+        <v>6.711756834372929</v>
       </c>
       <c r="V2" s="22" t="n">
-        <v>7.567322635302371</v>
+        <v>7.411610721965391</v>
       </c>
     </row>
     <row r="3">
@@ -6767,62 +6767,62 @@
         <v/>
       </c>
       <c r="B3" s="34" t="n">
-        <v>0.4919556786923327</v>
+        <v>0.4941934807623334</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.5840844012222937</v>
+        <v>0.6165431582974888</v>
       </c>
       <c r="D3" s="34" t="n">
-        <v>0.6244788437608036</v>
+        <v>0.66453678056179</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.7695623753428651</v>
+        <v>0.6681267620802719</v>
       </c>
       <c r="F3" s="34" t="n">
-        <v>0.04259547750294503</v>
+        <v>0.04280918936896034</v>
       </c>
       <c r="G3" s="34" t="n">
-        <v>0.5683332523371921</v>
+        <v>0.5981893185298384</v>
       </c>
       <c r="H3" s="34" t="n">
-        <v>0.586429280245905</v>
+        <v>0.6577367373419574</v>
       </c>
       <c r="I3" s="34" t="n">
-        <v>0.7669695446497514</v>
+        <v>0.672903142764566</v>
       </c>
       <c r="J3" s="34" t="n">
-        <v>0.6244788437608036</v>
+        <v>0.66453678056179</v>
       </c>
       <c r="M3">
         <f>+M2+1</f>
         <v/>
       </c>
       <c r="N3" s="22" t="n">
-        <v>1.282462480757269</v>
+        <v>1.288246682443881</v>
       </c>
       <c r="O3" s="22" t="n">
-        <v>1.24711671866773</v>
+        <v>1.240825795276122</v>
       </c>
       <c r="P3" s="22" t="n">
-        <v>1.220083859146486</v>
+        <v>1.1917207876972</v>
       </c>
       <c r="Q3" s="22" t="n">
-        <v>1.164274345264617</v>
+        <v>1.224361414148063</v>
       </c>
       <c r="R3" s="22" t="n">
-        <v>1.304274722234402</v>
+        <v>1.309314302338132</v>
       </c>
       <c r="S3" s="22" t="n">
-        <v>1.272096088993846</v>
+        <v>1.266926930651085</v>
       </c>
       <c r="T3" s="22" t="n">
-        <v>1.266778360743328</v>
+        <v>1.190245249998914</v>
       </c>
       <c r="U3" s="22" t="n">
-        <v>1.167580132935097</v>
+        <v>1.224156958027398</v>
       </c>
       <c r="V3" s="22" t="n">
-        <v>1.220083859146486</v>
+        <v>1.1917207876972</v>
       </c>
     </row>
     <row r="4">
@@ -6831,62 +6831,62 @@
         <v/>
       </c>
       <c r="B4" s="34" t="n">
-        <v>0.630914700118395</v>
+        <v>0.6366431120774699</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.7284214218773526</v>
+        <v>0.7650226547165334</v>
       </c>
       <c r="D4" s="34" t="n">
-        <v>0.7619165576510166</v>
+        <v>0.7919422955848578</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.8959817306925978</v>
+        <v>0.8180286272507682</v>
       </c>
       <c r="F4" s="34" t="n">
-        <v>0.05555620458859532</v>
+        <v>0.05605068391228126</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.7229745075432947</v>
+        <v>0.7578621572732724</v>
       </c>
       <c r="H4" s="34" t="n">
-        <v>0.742875922321797</v>
+        <v>0.782868027371048</v>
       </c>
       <c r="I4" s="34" t="n">
-        <v>0.8954984028993271</v>
+        <v>0.8237390642937472</v>
       </c>
       <c r="J4" s="34" t="n">
-        <v>0.7619165576510166</v>
+        <v>0.7919422955848578</v>
       </c>
       <c r="M4">
         <f>+M3+1</f>
         <v/>
       </c>
       <c r="N4" s="22" t="n">
-        <v>1.145341693813285</v>
+        <v>1.142135149316685</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>1.071161749501699</v>
+        <v>1.055405552259013</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>1.061681601662087</v>
+        <v>1.062258173881961</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>1.024857660047774</v>
+        <v>1.045698511226528</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>9.865644025946111</v>
+        <v>9.862371565256492</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>1.077254895954822</v>
+        <v>1.062031117776238</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>1.074577480960584</v>
+        <v>1.075674474152582</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>1.025442149051959</v>
+        <v>1.049070319259194</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>1.061681601662087</v>
+        <v>1.062258173881961</v>
       </c>
     </row>
     <row r="5">
@@ -6895,62 +6895,62 @@
         <v/>
       </c>
       <c r="B5" s="34" t="n">
-        <v>0.7226129112853029</v>
+        <v>0.7271324758740404</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.7802571646326598</v>
+        <v>0.8074091573917596</v>
       </c>
       <c r="D5" s="34" t="n">
-        <v>0.8089127912597951</v>
+        <v>0.8412471767278593</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.9182537399631707</v>
+        <v>0.8554113176568087</v>
       </c>
       <c r="F5" s="34" t="n">
-        <v>0.5480977379037153</v>
+        <v>0.5527926712296622</v>
       </c>
       <c r="G5" s="34" t="n">
-        <v>0.7788278279015409</v>
+        <v>0.804873194009245</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>0.798277737274827</v>
+        <v>0.8421111536732211</v>
       </c>
       <c r="I5" s="34" t="n">
-        <v>0.9182818067416832</v>
+        <v>0.8641602031649115</v>
       </c>
       <c r="J5" s="34" t="n">
-        <v>0.8089127912597951</v>
+        <v>0.8412471767278593</v>
       </c>
       <c r="M5">
         <f>+M4+1</f>
         <v/>
       </c>
       <c r="N5" s="22" t="n">
-        <v>1.088339506885622</v>
+        <v>1.089089357805835</v>
       </c>
       <c r="O5" s="22" t="n">
-        <v>1.031868086290523</v>
+        <v>1.024889397958121</v>
       </c>
       <c r="P5" s="22" t="n">
-        <v>1.03004765615622</v>
+        <v>1.008220755440517</v>
       </c>
       <c r="Q5" s="22" t="n">
-        <v>1.005721700970888</v>
+        <v>1.006580172342148</v>
       </c>
       <c r="R5" s="22" t="n">
-        <v>1.436594939545245</v>
+        <v>1.437042019882203</v>
       </c>
       <c r="S5" s="22" t="n">
-        <v>1.034128929776162</v>
+        <v>1.027190978308211</v>
       </c>
       <c r="T5" s="22" t="n">
-        <v>1.035900196007119</v>
+        <v>1.008390529404929</v>
       </c>
       <c r="U5" s="22" t="n">
-        <v>1.005907363082787</v>
+        <v>1.006662003190712</v>
       </c>
       <c r="V5" s="22" t="n">
-        <v>1.03004765615622</v>
+        <v>1.008220755440517</v>
       </c>
     </row>
     <row r="6">
@@ -6959,62 +6959,62 @@
         <v/>
       </c>
       <c r="B6" s="34" t="n">
-        <v>0.7864481795374304</v>
+        <v>0.7919122411894253</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.8051224672839721</v>
+        <v>0.8275050852251139</v>
       </c>
       <c r="D6" s="34" t="n">
-        <v>0.8332187246719379</v>
+        <v>0.8481628640327644</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.9235077132786396</v>
+        <v>0.8610400715504143</v>
       </c>
       <c r="F6" s="34" t="n">
-        <v>0.7873944366486734</v>
+        <v>0.7943862968399523</v>
       </c>
       <c r="G6" s="34" t="n">
-        <v>0.8054083881477133</v>
+        <v>0.8267584835684106</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>0.8269360645111131</v>
+        <v>0.8491769120703353</v>
       </c>
       <c r="I6" s="34" t="n">
-        <v>0.9237064307864246</v>
+        <v>0.8699172411956827</v>
       </c>
       <c r="J6" s="34" t="n">
-        <v>0.8332187246719379</v>
+        <v>0.8481628640327644</v>
       </c>
       <c r="M6">
         <f>+M5+1</f>
         <v/>
       </c>
       <c r="N6" s="22" t="n">
-        <v>1.089467617513963</v>
+        <v>1.073803861678821</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>1.078858694517582</v>
+        <v>1.053054761331155</v>
       </c>
       <c r="P6" s="22" t="n">
-        <v>1.04405387762857</v>
+        <v>1.021864017424998</v>
       </c>
       <c r="Q6" s="22" t="n">
-        <v>1.004711821605031</v>
+        <v>1.002264380359601</v>
       </c>
       <c r="R6" s="22" t="n">
-        <v>1.08642374903888</v>
+        <v>1.071280383707885</v>
       </c>
       <c r="S6" s="22" t="n">
-        <v>1.075391131934434</v>
+        <v>1.052791056352061</v>
       </c>
       <c r="T6" s="22" t="n">
-        <v>1.041086871646532</v>
+        <v>1.021285528839422</v>
       </c>
       <c r="U6" s="22" t="n">
-        <v>1.005008563695309</v>
+        <v>1.002321040836832</v>
       </c>
       <c r="V6" s="22" t="n">
-        <v>1.04405387762857</v>
+        <v>1.021864017424998</v>
       </c>
     </row>
     <row r="7">
@@ -7023,62 +7023,62 @@
         <v/>
       </c>
       <c r="B7" s="34" t="n">
-        <v>0.8568098244588375</v>
+        <v>0.850358422699935</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.8686133739807603</v>
+        <v>0.8714081700220495</v>
       </c>
       <c r="D7" s="34" t="n">
-        <v>0.8699252404064687</v>
+        <v>0.8667071116712134</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.9278591168744782</v>
+        <v>0.8629897937772629</v>
       </c>
       <c r="F7" s="34" t="n">
-        <v>0.8554440158362082</v>
+        <v>0.85101045689099</v>
       </c>
       <c r="G7" s="34" t="n">
-        <v>0.8661290381996574</v>
+        <v>0.8704039372640155</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>0.8609122804535696</v>
+        <v>0.8672520917219801</v>
       </c>
       <c r="I7" s="34" t="n">
-        <v>0.9283328732807851</v>
+        <v>0.8719363546371625</v>
       </c>
       <c r="J7" s="34" t="n">
-        <v>0.8699252404064687</v>
+        <v>0.8667071116712134</v>
       </c>
       <c r="M7">
         <f>+M6+1</f>
         <v/>
       </c>
       <c r="N7" s="22" t="n">
-        <v>1.033309481338698</v>
+        <v>1.040178914352538</v>
       </c>
       <c r="O7" s="22" t="n">
-        <v>1.035932498610719</v>
+        <v>1.05115249468523</v>
       </c>
       <c r="P7" s="22" t="n">
-        <v>1.054384796192925</v>
+        <v>1.070490981494982</v>
       </c>
       <c r="Q7" s="22" t="n">
-        <v>1.038497684305428</v>
+        <v>1.083945844673157</v>
       </c>
       <c r="R7" s="22" t="n">
-        <v>1.034956211305932</v>
+        <v>1.041264821989776</v>
       </c>
       <c r="S7" s="22" t="n">
-        <v>1.038218165020762</v>
+        <v>1.049680050337662</v>
       </c>
       <c r="T7" s="22" t="n">
-        <v>1.055022775461796</v>
+        <v>1.066640641146485</v>
       </c>
       <c r="U7" s="22" t="n">
-        <v>1.038430224060293</v>
+        <v>1.071858990579121</v>
       </c>
       <c r="V7" s="22" t="n">
-        <v>1.054384796192925</v>
+        <v>1.070490981494982</v>
       </c>
     </row>
     <row r="8">
@@ -7087,62 +7087,62 @@
         <v/>
       </c>
       <c r="B8" s="34" t="n">
-        <v>0.8853497153174624</v>
+        <v>0.8845249009345546</v>
       </c>
       <c r="C8" s="34" t="n">
-        <v>0.899824822834576</v>
+        <v>0.9159828718077681</v>
       </c>
       <c r="D8" s="34" t="n">
-        <v>0.9172359473090556</v>
+        <v>0.9278021466415984</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.9635795442358249</v>
+        <v>0.9354342009602087</v>
       </c>
       <c r="F8" s="34" t="n">
-        <v>0.8853470976141733</v>
+        <v>0.8861272519060349</v>
       </c>
       <c r="G8" s="34" t="n">
-        <v>0.8992309007108453</v>
+        <v>0.9136456486813908</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>0.908282063553269</v>
+        <v>0.9250463271499635</v>
       </c>
       <c r="I8" s="34" t="n">
-        <v>0.9640089136035008</v>
+        <v>0.9345928209306272</v>
       </c>
       <c r="J8" s="34" t="n">
-        <v>0.9172359473090556</v>
+        <v>0.9278021466415984</v>
       </c>
       <c r="M8">
         <f>+M7+1</f>
         <v/>
       </c>
       <c r="N8" s="22" t="n">
-        <v>1.041501575178134</v>
+        <v>1.045404148401286</v>
       </c>
       <c r="O8" s="22" t="n">
-        <v>1.029829698681497</v>
+        <v>1.025283930399371</v>
       </c>
       <c r="P8" s="22" t="n">
-        <v>1.028450816667646</v>
+        <v>1.019497788804826</v>
       </c>
       <c r="Q8" s="22" t="n">
-        <v>1.020387697060707</v>
+        <v>1.021963243970222</v>
       </c>
       <c r="R8" s="22" t="n">
-        <v>1.043480287300366</v>
+        <v>1.047355674683637</v>
       </c>
       <c r="S8" s="22" t="n">
-        <v>1.032888517921404</v>
+        <v>1.030617173590473</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>1.036114141666074</v>
+        <v>1.021754547456328</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>1.020765490000401</v>
+        <v>1.025036066479949</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>1.028450816667646</v>
+        <v>1.019497788804826</v>
       </c>
     </row>
     <row r="9">
@@ -7151,62 +7151,62 @@
         <v/>
       </c>
       <c r="B9" s="34" t="n">
-        <v>0.9220931230866497</v>
+        <v>0.92468600080122</v>
       </c>
       <c r="C9" s="34" t="n">
-        <v>0.9266663261658631</v>
+        <v>0.9391425189855713</v>
       </c>
       <c r="D9" s="34" t="n">
-        <v>0.9433320590869197</v>
+        <v>0.9458922369494803</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.9832247120775991</v>
+        <v>0.9559793705339878</v>
       </c>
       <c r="F9" s="34" t="n">
-        <v>0.9238422437789829</v>
+        <v>0.9280904057756025</v>
       </c>
       <c r="G9" s="34" t="n">
-        <v>0.9288052723043546</v>
+        <v>0.9416188961072496</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>0.9410838906691855</v>
+        <v>0.9451702913732489</v>
       </c>
       <c r="I9" s="34" t="n">
-        <v>0.9840270310592316</v>
+        <v>0.9579913489271296</v>
       </c>
       <c r="J9" s="34" t="n">
-        <v>0.9433320590869197</v>
+        <v>0.9458922369494803</v>
       </c>
       <c r="M9">
         <f>+M8+1</f>
         <v/>
       </c>
       <c r="N9" s="22" t="n">
-        <v>1.016436793147238</v>
+        <v>1.016986600139458</v>
       </c>
       <c r="O9" s="22" t="n">
-        <v>1.008430416074338</v>
+        <v>1.002908966545896</v>
       </c>
       <c r="P9" s="22" t="n">
-        <v>1.000540395289886</v>
+        <v>1.000585323016148</v>
       </c>
       <c r="Q9" s="22" t="n">
-        <v>1.000388832949295</v>
+        <v>1.000279581204199</v>
       </c>
       <c r="R9" s="22" t="n">
-        <v>1.015320565307693</v>
+        <v>1.015320593865574</v>
       </c>
       <c r="S9" s="22" t="n">
-        <v>1.007474719113833</v>
+        <v>1.003057135864141</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>1.000578032403777</v>
+        <v>1.000578108558126</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>1.00037123784092</v>
+        <v>1.000236228053808</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>1.000540395289886</v>
+        <v>1.000585323016148</v>
       </c>
     </row>
     <row r="10">
@@ -7215,62 +7215,62 @@
         <v/>
       </c>
       <c r="B10" s="34" t="n">
-        <v>0.9372493770133158</v>
+        <v>0.9403932721513845</v>
       </c>
       <c r="C10" s="34" t="n">
-        <v>0.9344785088575199</v>
+        <v>0.9418744531551289</v>
       </c>
       <c r="D10" s="34" t="n">
-        <v>0.9438418312884486</v>
+        <v>0.9464458894465623</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.9836070222422161</v>
+        <v>0.9562466443975914</v>
       </c>
       <c r="F10" s="34" t="n">
-        <v>0.9379960292088046</v>
+        <v>0.9423093019530263</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.9357478308262765</v>
+        <v>0.9444975530048917</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>0.9416278676526646</v>
+        <v>0.9457167024075783</v>
       </c>
       <c r="I10" s="34" t="n">
-        <v>0.9843923391296484</v>
+        <v>0.958217653359051</v>
       </c>
       <c r="J10" s="34" t="n">
-        <v>0.9438418312884486</v>
+        <v>0.9464458894465623</v>
       </c>
       <c r="M10">
         <f>+M9+1</f>
         <v/>
       </c>
       <c r="N10" s="22" t="n">
-        <v>1.015089525134486</v>
+        <v>1.015305704441562</v>
       </c>
       <c r="O10" s="22" t="n">
-        <v>1.016677163500708</v>
+        <v>1.016946256401425</v>
       </c>
       <c r="P10" s="22" t="n">
-        <v>1.008138798357992</v>
+        <v>1.008105920144857</v>
       </c>
       <c r="Q10" s="22" t="n">
-        <v>1.000089487940172</v>
+        <v>1.00008231241814</v>
       </c>
       <c r="R10" s="22" t="n">
         <v>1.01420280212642</v>
       </c>
       <c r="S10" s="22" t="n">
-        <v>1.015203375696042</v>
+        <v>1.015182599621855</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>1.011344667125753</v>
+        <v>1.011151212360694</v>
       </c>
       <c r="U10" s="22" t="n">
         <v>1.000076412463393</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>1.008138798357992</v>
+        <v>1.008105920144857</v>
       </c>
     </row>
     <row r="11">
@@ -7279,62 +7279,62 @@
         <v/>
       </c>
       <c r="B11" s="34" t="n">
-        <v>0.9513920250450398</v>
+        <v>0.9547866536337667</v>
       </c>
       <c r="C11" s="34" t="n">
-        <v>0.9500629597376344</v>
+        <v>0.9578356991362473</v>
       </c>
       <c r="D11" s="34" t="n">
-        <v>0.9515235696351431</v>
+        <v>0.9541177042478438</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>0.9836950432085758</v>
+        <v>0.9563253553712301</v>
       </c>
       <c r="F11" s="34" t="n">
-        <v>0.9513182012070248</v>
+        <v>0.9556927345105498</v>
       </c>
       <c r="G11" s="34" t="n">
-        <v>0.9499743566550849</v>
+        <v>0.9588374811959866</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>0.9523103223675163</v>
+        <v>0.9562625901891806</v>
       </c>
       <c r="I11" s="34" t="n">
-        <v>0.9844675589732269</v>
+        <v>0.9582908731304112</v>
       </c>
       <c r="J11" s="34" t="n">
-        <v>0.9515235696351431</v>
+        <v>0.9541177042478438</v>
       </c>
       <c r="M11">
         <f>+M10+1</f>
         <v/>
       </c>
       <c r="N11" s="22" t="n">
-        <v>1.007653850005895</v>
+        <v>1.010516582129392</v>
       </c>
       <c r="O11" s="22" t="n">
-        <v>1.008463795371817</v>
+        <v>1.011905885261455</v>
       </c>
       <c r="P11" s="22" t="n">
-        <v>1.016492235699591</v>
+        <v>1.016487723282713</v>
       </c>
       <c r="Q11" s="22" t="n">
-        <v>1.000988043301871</v>
+        <v>1.016973556614937</v>
       </c>
       <c r="R11" s="22" t="n">
-        <v>1.008339444697627</v>
+        <v>1.011884037961414</v>
       </c>
       <c r="S11" s="22" t="n">
-        <v>1.009226982532978</v>
+        <v>1.013343153940957</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>1.01557674835408</v>
+        <v>1.015860924206669</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>1.000790729716175</v>
+        <v>1.017332164947182</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>1.016492235699591</v>
+        <v>1.016487723282713</v>
       </c>
     </row>
     <row r="12">
@@ -7343,62 +7343,62 @@
         <v/>
       </c>
       <c r="B12" s="34" t="n">
-        <v>0.9586738369015393</v>
+        <v>0.9648277458927537</v>
       </c>
       <c r="C12" s="34" t="n">
-        <v>0.958104098219197</v>
+        <v>0.9692395810694892</v>
       </c>
       <c r="D12" s="34" t="n">
-        <v>0.9672163206192816</v>
+        <v>0.96984893293462</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>0.9846669765071017</v>
+        <v>0.9725575979329231</v>
       </c>
       <c r="F12" s="34" t="n">
-        <v>0.9592516667358367</v>
+        <v>0.9670502232469208</v>
       </c>
       <c r="G12" s="34" t="n">
-        <v>0.9587397534507185</v>
+        <v>0.9716313973119439</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>0.9671442206140283</v>
+        <v>0.9714297986538438</v>
       </c>
       <c r="I12" s="34" t="n">
-        <v>0.9852460067267175</v>
+        <v>0.9749001286108867</v>
       </c>
       <c r="J12" s="34" t="n">
-        <v>0.9672163206192816</v>
+        <v>0.96984893293462</v>
       </c>
       <c r="M12">
         <f>+M11+1</f>
         <v/>
       </c>
       <c r="N12" s="22" t="n">
-        <v>1.008009110626873</v>
+        <v>1.008044777268037</v>
       </c>
       <c r="O12" s="22" t="n">
-        <v>1.008608525433202</v>
+        <v>1.003456306579327</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>1.000040191789396</v>
+        <v>1.000113741683098</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>1.000001321328085</v>
+        <v>1.000165786350229</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>1.007589197666198</v>
+        <v>1.007532349662498</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.008127193816217</v>
+        <v>1.002781905118698</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.000041974055143</v>
+        <v>1.000107677358123</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>1.000001634100305</v>
+        <v>1.000133040706263</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>1.000040191789396</v>
+        <v>1.000113741683098</v>
       </c>
     </row>
     <row r="13">
@@ -7407,62 +7407,62 @@
         <v/>
       </c>
       <c r="B13" s="34" t="n">
-        <v>0.9663519617163723</v>
+        <v>0.9725895702104835</v>
       </c>
       <c r="C13" s="34" t="n">
-        <v>0.9663519617163723</v>
+        <v>0.9725895702104835</v>
       </c>
       <c r="D13" s="34" t="n">
-        <v>0.9672551947739398</v>
+        <v>0.969959245184603</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>0.9846682775752321</v>
+        <v>0.972718834707472</v>
       </c>
       <c r="F13" s="34" t="n">
-        <v>0.9665316172463245</v>
+        <v>0.9743343836696137</v>
       </c>
       <c r="G13" s="34" t="n">
-        <v>0.9665316172463245</v>
+        <v>0.9743343836696137</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>0.9671848155788759</v>
+        <v>0.9715343996481645</v>
       </c>
       <c r="I13" s="34" t="n">
-        <v>0.9852476167175171</v>
+        <v>0.9750298300125331</v>
       </c>
       <c r="J13" s="34" t="n">
-        <v>0.9672551947739398</v>
+        <v>0.969959245184603</v>
       </c>
       <c r="M13">
         <f>+M12+1</f>
         <v/>
       </c>
       <c r="N13" s="22" t="n">
-        <v>1.004712600287211</v>
+        <v>1.000806208303226</v>
       </c>
       <c r="O13" s="22" t="n">
-        <v>1.004712600287211</v>
+        <v>1.000806208303226</v>
       </c>
       <c r="P13" s="22" t="n">
-        <v>1.000985397844439</v>
+        <v>1.000534295497571</v>
       </c>
       <c r="Q13" s="22" t="n">
-        <v>1.001057220625326</v>
+        <v>1</v>
       </c>
       <c r="R13" s="22" t="n">
-        <v>1.004636611239767</v>
+        <v>1.000724316726801</v>
       </c>
       <c r="S13" s="22" t="n">
-        <v>1.004636611239767</v>
+        <v>1.000724316726801</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>1.000812018616095</v>
+        <v>1.000463421746686</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>1.000913833797225</v>
+        <v>1</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>1.000985397844439</v>
+        <v>1.000534295497571</v>
       </c>
     </row>
     <row r="14">
@@ -7471,44 +7471,44 @@
         <v/>
       </c>
       <c r="B14" s="34" t="n">
-        <v>0.9709059922487037</v>
+        <v>0.973373679997618</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0.9709059922487037</v>
+        <v>0.973373679997618</v>
       </c>
       <c r="D14" s="34" t="n">
-        <v>0.9682083259578926</v>
+        <v>0.9704774900421325</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>0.9857092891873892</v>
+        <v>0.972718834707472</v>
       </c>
       <c r="F14" s="34" t="n">
-        <v>0.9710130486064391</v>
+        <v>0.9750401103612032</v>
       </c>
       <c r="G14" s="34" t="n">
-        <v>0.9710130486064391</v>
+        <v>0.9750401103612032</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>0.9679701876543307</v>
+        <v>0.9719846298166153</v>
       </c>
       <c r="I14" s="34" t="n">
-        <v>0.9861479692883094</v>
+        <v>0.9750298300125331</v>
       </c>
       <c r="J14" s="34" t="n">
-        <v>0.9682083259578926</v>
+        <v>0.9704774900421325</v>
       </c>
       <c r="M14">
         <f>+M13+1</f>
         <v/>
       </c>
       <c r="N14" s="22" t="n">
-        <v>1.000137065337786</v>
+        <v>1.0001431295593</v>
       </c>
       <c r="O14" s="22" t="n">
-        <v>1.000137065337786</v>
+        <v>1.0001431295593</v>
       </c>
       <c r="P14" s="22" t="n">
-        <v>1.000138268094841</v>
+        <v>1.000150300961313</v>
       </c>
       <c r="Q14" s="22" t="n">
         <v>1</v>
@@ -7526,7 +7526,7 @@
         <v>1</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>1.000138268094841</v>
+        <v>1.000150300961313</v>
       </c>
     </row>
     <row r="15">
@@ -7535,47 +7535,47 @@
         <v/>
       </c>
       <c r="B15" s="34" t="n">
-        <v>0.97103906980649</v>
+        <v>0.9735129985434703</v>
       </c>
       <c r="C15" s="34" t="n">
-        <v>0.97103906980649</v>
+        <v>0.9735129985434703</v>
       </c>
       <c r="D15" s="34" t="n">
-        <v>0.9683421982785319</v>
+        <v>0.9706233537418186</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>0.9857092891873892</v>
+        <v>0.972718834707472</v>
       </c>
       <c r="F15" s="34" t="n">
-        <v>0.971127650547071</v>
+        <v>0.9751551875880248</v>
       </c>
       <c r="G15" s="34" t="n">
-        <v>0.971127650547071</v>
+        <v>0.9751551875880248</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>0.9680663573552085</v>
+        <v>0.972081198360047</v>
       </c>
       <c r="I15" s="34" t="n">
-        <v>0.9861479692883094</v>
+        <v>0.9750298300125331</v>
       </c>
       <c r="J15" s="34" t="n">
-        <v>0.9683421982785319</v>
+        <v>0.9706233537418186</v>
       </c>
       <c r="M15">
         <f>+M14+1</f>
         <v/>
       </c>
       <c r="N15" s="22" t="n">
-        <v>1.006942259874243</v>
+        <v>1.00703569840229</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.006942259874243</v>
+        <v>1.00703569840229</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>1.005697713357456</v>
+        <v>1.006005218316121</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>1.01343987544647</v>
+        <v>1.01406021242915</v>
       </c>
       <c r="R15" s="22" t="n">
         <v>1.007381365606156</v>
@@ -7587,10 +7587,10 @@
         <v>1.006622719285425</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.01324543857085</v>
+        <v>1.013245438570849</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>1.005697713357456</v>
+        <v>1.006005218316121</v>
       </c>
     </row>
     <row r="16">
@@ -7599,47 +7599,47 @@
         <v/>
       </c>
       <c r="B16" s="34" t="n">
-        <v>0.9777802753771302</v>
+        <v>0.9803623423919308</v>
       </c>
       <c r="C16" s="34" t="n">
-        <v>0.9777802753771302</v>
+        <v>0.9803623423919308</v>
       </c>
       <c r="D16" s="34" t="n">
-        <v>0.973859534556252</v>
+        <v>0.9764521588837639</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>0.9989570992604956</v>
+        <v>0.9863954681572945</v>
       </c>
       <c r="F16" s="34" t="n">
-        <v>0.9782958987860058</v>
+        <v>0.9823531645503513</v>
       </c>
       <c r="G16" s="34" t="n">
-        <v>0.9782958987860058</v>
+        <v>0.9823531645503513</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>0.9744775890896358</v>
+        <v>0.9785190192594252</v>
       </c>
       <c r="I16" s="34" t="n">
-        <v>0.9992099316372858</v>
+        <v>0.9879445277307097</v>
       </c>
       <c r="J16" s="34" t="n">
-        <v>0.973859534556252</v>
+        <v>0.9764521588837639</v>
       </c>
       <c r="M16">
         <f>+M15+1</f>
         <v/>
       </c>
       <c r="N16" s="22" t="n">
-        <v>1.0084849248026</v>
+        <v>1.008561333761006</v>
       </c>
       <c r="O16" s="22" t="n">
-        <v>1.0084849248026</v>
+        <v>1.008561333761006</v>
       </c>
       <c r="P16" s="22" t="n">
-        <v>1.012438690122468</v>
+        <v>1.012499913415497</v>
       </c>
       <c r="Q16" s="22" t="n">
-        <v>1.001043989516944</v>
+        <v>1</v>
       </c>
       <c r="R16" s="22" t="n">
         <v>1.007938715662285</v>
@@ -7651,10 +7651,10 @@
         <v>1.011755527786586</v>
       </c>
       <c r="U16" s="22" t="n">
-        <v>1.000790693064289</v>
+        <v>1</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>1.012438690122468</v>
+        <v>1.012499913415497</v>
       </c>
     </row>
     <row r="17">
@@ -7663,31 +7663,31 @@
         <v/>
       </c>
       <c r="B17" s="34" t="n">
-        <v>0.9860766674871709</v>
+        <v>0.9887555516118696</v>
       </c>
       <c r="C17" s="34" t="n">
-        <v>0.9860766674871709</v>
+        <v>0.9887555516118696</v>
       </c>
       <c r="D17" s="34" t="n">
-        <v>0.9859730715294078</v>
+        <v>0.9886577263241857</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>1</v>
+        <v>0.9863954681572945</v>
       </c>
       <c r="F17" s="34" t="n">
-        <v>0.9860623117600478</v>
+        <v>0.9901517870036626</v>
       </c>
       <c r="G17" s="34" t="n">
-        <v>0.9860623117600478</v>
+        <v>0.9901517870036626</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>0.9859330874655844</v>
+        <v>0.9900220267800323</v>
       </c>
       <c r="I17" s="34" t="n">
-        <v>1</v>
+        <v>0.9879445277307097</v>
       </c>
       <c r="J17" s="34" t="n">
-        <v>0.9859730715294078</v>
+        <v>0.9886577263241857</v>
       </c>
       <c r="M17">
         <f>+M16+1</f>
@@ -7727,44 +7727,44 @@
         <v/>
       </c>
       <c r="B18" s="34" t="n">
-        <v>0.9860766674871709</v>
+        <v>0.9887555516118696</v>
       </c>
       <c r="C18" s="34" t="n">
-        <v>0.9860766674871709</v>
+        <v>0.9887555516118696</v>
       </c>
       <c r="D18" s="34" t="n">
-        <v>0.9859730715294078</v>
+        <v>0.9886577263241857</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>1</v>
+        <v>0.9863954681572945</v>
       </c>
       <c r="F18" s="34" t="n">
-        <v>0.9860623117600478</v>
+        <v>0.9901517870036626</v>
       </c>
       <c r="G18" s="34" t="n">
-        <v>0.9860623117600478</v>
+        <v>0.9901517870036626</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>0.9859330874655844</v>
+        <v>0.9900220267800323</v>
       </c>
       <c r="I18" s="34" t="n">
-        <v>1</v>
+        <v>0.9879445277307097</v>
       </c>
       <c r="J18" s="34" t="n">
-        <v>0.9859730715294078</v>
+        <v>0.9886577263241857</v>
       </c>
       <c r="M18">
         <f>+M17+1</f>
         <v/>
       </c>
       <c r="N18" s="22" t="n">
-        <v>1.000690403355862</v>
+        <v>1.000692118177736</v>
       </c>
       <c r="O18" s="22" t="n">
-        <v>1.000690403355862</v>
+        <v>1.000692118177736</v>
       </c>
       <c r="P18" s="22" t="n">
-        <v>1.000795545660204</v>
+        <v>1.000791134239349</v>
       </c>
       <c r="Q18" s="22" t="n">
         <v>1</v>
@@ -7782,7 +7782,7 @@
         <v>1</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>1.000795545660204</v>
+        <v>1.000791134239349</v>
       </c>
     </row>
     <row r="19">
@@ -7791,62 +7791,62 @@
         <v/>
       </c>
       <c r="B19" s="34" t="n">
-        <v>0.9867574581275412</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="C19" s="34" t="n">
-        <v>0.9867574581275412</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="D19" s="34" t="n">
-        <v>0.9867574581275412</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>1</v>
+        <v>0.9863954681572945</v>
       </c>
       <c r="F19" s="34" t="n">
-        <v>0.9868383694479134</v>
+        <v>0.9909310632190635</v>
       </c>
       <c r="G19" s="34" t="n">
-        <v>0.9868383694479134</v>
+        <v>0.9909310632190635</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>0.9868383694479134</v>
+        <v>0.9909310632190635</v>
       </c>
       <c r="I19" s="34" t="n">
-        <v>1</v>
+        <v>0.9879445277307097</v>
       </c>
       <c r="J19" s="34" t="n">
-        <v>0.9867574581275412</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="M19">
         <f>+M18+1</f>
         <v/>
       </c>
       <c r="N19" s="22" t="n">
-        <v>1.005255732575373</v>
+        <v>1</v>
       </c>
       <c r="O19" s="22" t="n">
-        <v>1.005255732575373</v>
+        <v>1</v>
       </c>
       <c r="P19" s="22" t="n">
-        <v>1.005255732575373</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="22" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="22" t="n">
-        <v>1.005445923621717</v>
+        <v>1</v>
       </c>
       <c r="S19" s="22" t="n">
-        <v>1.005445923621717</v>
+        <v>1</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>1.005445923621717</v>
+        <v>1</v>
       </c>
       <c r="U19" s="22" t="n">
         <v>1</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>1.005255732575373</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -7855,31 +7855,31 @@
         <v/>
       </c>
       <c r="B20" s="34" t="n">
-        <v>0.9919435914442148</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="C20" s="34" t="n">
-        <v>0.9919435914442148</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="D20" s="34" t="n">
-        <v>0.9919435914442148</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="E20" s="34" t="n">
-        <v>1</v>
+        <v>0.9863954681572945</v>
       </c>
       <c r="F20" s="34" t="n">
-        <v>0.9922126158349061</v>
+        <v>0.9909310632190635</v>
       </c>
       <c r="G20" s="34" t="n">
-        <v>0.9922126158349061</v>
+        <v>0.9909310632190635</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>0.9922126158349061</v>
+        <v>0.9909310632190635</v>
       </c>
       <c r="I20" s="34" t="n">
-        <v>1</v>
+        <v>0.9879445277307097</v>
       </c>
       <c r="J20" s="34" t="n">
-        <v>0.9919435914442148</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="M20">
         <f>+M19+1</f>
@@ -7919,62 +7919,62 @@
         <v/>
       </c>
       <c r="B21" s="34" t="n">
-        <v>0.9919435914442148</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="C21" s="34" t="n">
-        <v>0.9919435914442148</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="D21" s="34" t="n">
-        <v>0.9919435914442148</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="E21" s="34" t="n">
-        <v>1</v>
+        <v>0.9863954681572945</v>
       </c>
       <c r="F21" s="34" t="n">
-        <v>0.9922126158349061</v>
+        <v>0.9909310632190635</v>
       </c>
       <c r="G21" s="34" t="n">
-        <v>0.9922126158349061</v>
+        <v>0.9909310632190635</v>
       </c>
       <c r="H21" s="34" t="n">
-        <v>0.9922126158349061</v>
+        <v>0.9909310632190635</v>
       </c>
       <c r="I21" s="34" t="n">
-        <v>1</v>
+        <v>0.9879445277307097</v>
       </c>
       <c r="J21" s="34" t="n">
-        <v>0.9919435914442148</v>
+        <v>0.9894398873024773</v>
       </c>
       <c r="M21">
         <f>+M20+1</f>
         <v/>
       </c>
       <c r="N21" s="22" t="n">
-        <v>1.008121841428559</v>
+        <v>1.010672818867564</v>
       </c>
       <c r="O21" s="22" t="n">
-        <v>1.008121841428559</v>
+        <v>1.010672818867564</v>
       </c>
       <c r="P21" s="22" t="n">
-        <v>1.008121841428559</v>
+        <v>1.010672818867564</v>
       </c>
       <c r="Q21" s="22" t="n">
-        <v>1</v>
+        <v>1.013792167829117</v>
       </c>
       <c r="R21" s="22" t="n">
-        <v>1.007848503476789</v>
+        <v>1.009151935101798</v>
       </c>
       <c r="S21" s="22" t="n">
-        <v>1.007848503476789</v>
+        <v>1.009151935101798</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>1.007848503476789</v>
+        <v>1.009151935101798</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>1</v>
+        <v>1.01220258013573</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>1.008121841428559</v>
+        <v>1.010672818867564</v>
       </c>
     </row>
     <row r="22">
@@ -8241,7 +8241,7 @@
         </is>
       </c>
       <c r="H4" s="8" t="n">
-        <v>45838</v>
+        <v>45869</v>
       </c>
       <c r="J4" s="40" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v/>
       </c>
       <c r="B8" s="14" t="n">
-        <v>52565.13</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="C8" s="14">
         <f>+'Completion Factors'!J30</f>
@@ -8589,7 +8589,7 @@
         <v/>
       </c>
       <c r="I8" s="14" t="n">
-        <v>60729.9575</v>
+        <v>60206.21833333333</v>
       </c>
       <c r="J8" s="14">
         <f>100*$G8/$I8</f>
@@ -8612,76 +8612,76 @@
         <v/>
       </c>
       <c r="S8" s="22" t="n">
-        <v>2603.49</v>
+        <v>5518.87</v>
       </c>
       <c r="T8" s="22" t="n">
-        <v>25823.28</v>
+        <v>25372.63</v>
       </c>
       <c r="U8" s="22" t="n">
-        <v>30532.75</v>
+        <v>30359.72</v>
       </c>
       <c r="V8" s="22" t="n">
-        <v>35305.87</v>
+        <v>35718.6</v>
       </c>
       <c r="W8" s="22" t="n">
-        <v>35356.37</v>
+        <v>39458.75</v>
       </c>
       <c r="X8" s="22" t="n">
-        <v>45532.06</v>
+        <v>39980.06</v>
       </c>
       <c r="Y8" s="22" t="n">
-        <v>46983.05</v>
+        <v>42144.69</v>
       </c>
       <c r="Z8" s="22" t="n">
-        <v>47086.07</v>
+        <v>42095.23</v>
       </c>
       <c r="AA8" s="22" t="n">
-        <v>47086.07</v>
+        <v>42095.23</v>
       </c>
       <c r="AB8" s="22" t="n">
-        <v>47086.07</v>
+        <v>43303.10999999999</v>
       </c>
       <c r="AC8" s="22" t="n">
-        <v>47086.07</v>
+        <v>43564.16</v>
       </c>
       <c r="AD8" s="22" t="n">
-        <v>47139.43</v>
+        <v>46375.69</v>
       </c>
       <c r="AE8" s="22" t="n">
-        <v>49352.51</v>
+        <v>46518.02999999999</v>
       </c>
       <c r="AF8" s="22" t="n">
-        <v>49352.51</v>
+        <v>46534.09999999999</v>
       </c>
       <c r="AG8" s="22" t="n">
-        <v>49352.51</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AH8" s="22" t="n">
-        <v>49352.51</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AI8" s="22" t="n">
-        <v>49352.51</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AJ8" s="22" t="n">
-        <v>49352.51</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AK8" s="22" t="n">
-        <v>50965.13</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AL8" s="22" t="n">
-        <v>50965.13</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AM8" s="22" t="n">
-        <v>52565.13</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AN8" s="22" t="n">
-        <v>52565.13</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AO8" s="22" t="n">
-        <v>52565.13</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AP8" s="22" t="n">
-        <v>52565.13</v>
+        <v>46620.28999999999</v>
       </c>
       <c r="AQ8" s="14" t="n"/>
       <c r="AR8" s="14" t="n"/>
@@ -8692,7 +8692,7 @@
         <v/>
       </c>
       <c r="B9" s="14" t="n">
-        <v>46620.28999999999</v>
+        <v>52360.07</v>
       </c>
       <c r="C9" s="14">
         <f>+'Completion Factors'!J29</f>
@@ -8716,7 +8716,7 @@
         <v/>
       </c>
       <c r="I9" s="14" t="n">
-        <v>60206.21833333333</v>
+        <v>59439.09166666667</v>
       </c>
       <c r="J9" s="14">
         <f>100*$G9/$I9</f>
@@ -8739,73 +8739,73 @@
         <v/>
       </c>
       <c r="S9" s="22" t="n">
-        <v>5518.87</v>
+        <v>4004.98</v>
       </c>
       <c r="T9" s="22" t="n">
-        <v>25372.63</v>
+        <v>30333.79</v>
       </c>
       <c r="U9" s="22" t="n">
-        <v>30359.72</v>
+        <v>36608.93</v>
       </c>
       <c r="V9" s="22" t="n">
-        <v>35718.6</v>
+        <v>37528.42</v>
       </c>
       <c r="W9" s="22" t="n">
-        <v>39458.75</v>
+        <v>42551.47</v>
       </c>
       <c r="X9" s="22" t="n">
-        <v>39980.06</v>
+        <v>42551.47</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>42144.69</v>
+        <v>42551.47</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>42095.23</v>
+        <v>44199.61</v>
       </c>
       <c r="AA9" s="22" t="n">
-        <v>42095.23</v>
+        <v>50457.76</v>
       </c>
       <c r="AB9" s="22" t="n">
-        <v>43303.10999999999</v>
+        <v>50554.01</v>
       </c>
       <c r="AC9" s="22" t="n">
-        <v>43564.16</v>
+        <v>50565.65</v>
       </c>
       <c r="AD9" s="22" t="n">
-        <v>46375.69</v>
+        <v>50660.98</v>
       </c>
       <c r="AE9" s="22" t="n">
-        <v>46518.02999999999</v>
+        <v>50660.98</v>
       </c>
       <c r="AF9" s="22" t="n">
-        <v>46534.09999999999</v>
+        <v>50679.05</v>
       </c>
       <c r="AG9" s="22" t="n">
-        <v>46620.28999999999</v>
+        <v>52312.19</v>
       </c>
       <c r="AH9" s="22" t="n">
-        <v>46620.28999999999</v>
+        <v>52360.07</v>
       </c>
       <c r="AI9" s="22" t="n">
-        <v>46620.28999999999</v>
+        <v>52360.07</v>
       </c>
       <c r="AJ9" s="22" t="n">
-        <v>46620.28999999999</v>
+        <v>52360.07</v>
       </c>
       <c r="AK9" s="22" t="n">
-        <v>46620.28999999999</v>
+        <v>52360.07</v>
       </c>
       <c r="AL9" s="22" t="n">
-        <v>46620.28999999999</v>
+        <v>52360.07</v>
       </c>
       <c r="AM9" s="22" t="n">
-        <v>46620.28999999999</v>
+        <v>52360.07</v>
       </c>
       <c r="AN9" s="22" t="n">
-        <v>46620.28999999999</v>
+        <v>52360.07</v>
       </c>
       <c r="AO9" s="22" t="n">
-        <v>46620.28999999999</v>
+        <v>52360.07</v>
       </c>
       <c r="AP9" s="22" t="n">
         <v/>
@@ -8819,7 +8819,7 @@
         <v/>
       </c>
       <c r="B10" s="14" t="n">
-        <v>52360.07</v>
+        <v>47054.17</v>
       </c>
       <c r="C10" s="14">
         <f>+'Completion Factors'!J28</f>
@@ -8843,7 +8843,7 @@
         <v/>
       </c>
       <c r="I10" s="14" t="n">
-        <v>59439.09166666667</v>
+        <v>58651.46416666666</v>
       </c>
       <c r="J10" s="14">
         <f>100*$G10/$I10</f>
@@ -8866,70 +8866,70 @@
         <v/>
       </c>
       <c r="S10" s="22" t="n">
-        <v>4004.98</v>
+        <v>2346.91</v>
       </c>
       <c r="T10" s="22" t="n">
-        <v>30333.79</v>
+        <v>16810.48</v>
       </c>
       <c r="U10" s="22" t="n">
-        <v>36608.93</v>
+        <v>26719.15</v>
       </c>
       <c r="V10" s="22" t="n">
-        <v>37528.42</v>
+        <v>34887.59</v>
       </c>
       <c r="W10" s="22" t="n">
-        <v>42551.47</v>
+        <v>36617.06</v>
       </c>
       <c r="X10" s="22" t="n">
-        <v>42551.47</v>
+        <v>38192.33</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>42551.47</v>
+        <v>38192.33</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>44199.61</v>
+        <v>46050.79</v>
       </c>
       <c r="AA10" s="22" t="n">
-        <v>50457.76</v>
+        <v>46688.32</v>
       </c>
       <c r="AB10" s="22" t="n">
-        <v>50554.01</v>
+        <v>46699.96</v>
       </c>
       <c r="AC10" s="22" t="n">
-        <v>50565.65</v>
+        <v>46705.45</v>
       </c>
       <c r="AD10" s="22" t="n">
-        <v>50660.98</v>
+        <v>46787.7</v>
       </c>
       <c r="AE10" s="22" t="n">
-        <v>50660.98</v>
+        <v>46796.36</v>
       </c>
       <c r="AF10" s="22" t="n">
-        <v>50679.05</v>
+        <v>46796.36</v>
       </c>
       <c r="AG10" s="22" t="n">
-        <v>52312.19</v>
+        <v>46796.36</v>
       </c>
       <c r="AH10" s="22" t="n">
-        <v>52360.07</v>
+        <v>46796.36</v>
       </c>
       <c r="AI10" s="22" t="n">
-        <v>52360.07</v>
+        <v>46796.36</v>
       </c>
       <c r="AJ10" s="22" t="n">
-        <v>52360.07</v>
+        <v>47054.17</v>
       </c>
       <c r="AK10" s="22" t="n">
-        <v>52360.07</v>
+        <v>47054.17</v>
       </c>
       <c r="AL10" s="22" t="n">
-        <v>52360.07</v>
+        <v>47054.17</v>
       </c>
       <c r="AM10" s="22" t="n">
-        <v>52360.07</v>
+        <v>47054.17</v>
       </c>
       <c r="AN10" s="22" t="n">
-        <v>52360.07</v>
+        <v>47054.17</v>
       </c>
       <c r="AO10" s="22" t="n">
         <v/>
@@ -8946,7 +8946,7 @@
         <v/>
       </c>
       <c r="B11" s="14" t="n">
-        <v>47054.17</v>
+        <v>62296.58</v>
       </c>
       <c r="C11" s="14">
         <f>+'Completion Factors'!J27</f>
@@ -8970,7 +8970,7 @@
         <v/>
       </c>
       <c r="I11" s="14" t="n">
-        <v>58651.46416666666</v>
+        <v>57459.95916666667</v>
       </c>
       <c r="J11" s="14">
         <f>100*$G11/$I11</f>
@@ -8993,67 +8993,67 @@
         <v/>
       </c>
       <c r="S11" s="22" t="n">
-        <v>2346.91</v>
+        <v>2523.67</v>
       </c>
       <c r="T11" s="22" t="n">
-        <v>16810.48</v>
+        <v>19426.47</v>
       </c>
       <c r="U11" s="22" t="n">
-        <v>26719.15</v>
+        <v>37346.05</v>
       </c>
       <c r="V11" s="22" t="n">
-        <v>34887.59</v>
+        <v>43830.37</v>
       </c>
       <c r="W11" s="22" t="n">
-        <v>36617.06</v>
+        <v>43854.60000000001</v>
       </c>
       <c r="X11" s="22" t="n">
-        <v>38192.33</v>
+        <v>45482.31</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>38192.33</v>
+        <v>48089.15000000001</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>46050.79</v>
+        <v>52849.52000000001</v>
       </c>
       <c r="AA11" s="22" t="n">
-        <v>46688.32</v>
+        <v>55651.15000000001</v>
       </c>
       <c r="AB11" s="22" t="n">
-        <v>46699.96</v>
+        <v>55744.62000000001</v>
       </c>
       <c r="AC11" s="22" t="n">
-        <v>46705.45</v>
+        <v>56667.46000000001</v>
       </c>
       <c r="AD11" s="22" t="n">
-        <v>46787.7</v>
+        <v>58271.84</v>
       </c>
       <c r="AE11" s="22" t="n">
-        <v>46796.36</v>
+        <v>58271.84</v>
       </c>
       <c r="AF11" s="22" t="n">
-        <v>46796.36</v>
+        <v>58271.84</v>
       </c>
       <c r="AG11" s="22" t="n">
-        <v>46796.36</v>
+        <v>58271.84</v>
       </c>
       <c r="AH11" s="22" t="n">
-        <v>46796.36</v>
+        <v>60096.58</v>
       </c>
       <c r="AI11" s="22" t="n">
-        <v>46796.36</v>
+        <v>60096.58</v>
       </c>
       <c r="AJ11" s="22" t="n">
-        <v>47054.17</v>
+        <v>60096.58</v>
       </c>
       <c r="AK11" s="22" t="n">
-        <v>47054.17</v>
+        <v>60096.58</v>
       </c>
       <c r="AL11" s="22" t="n">
-        <v>47054.17</v>
+        <v>60096.58</v>
       </c>
       <c r="AM11" s="22" t="n">
-        <v>47054.17</v>
+        <v>62296.58</v>
       </c>
       <c r="AN11" s="22" t="n">
         <v/>
@@ -9073,7 +9073,7 @@
         <v/>
       </c>
       <c r="B12" s="14" t="n">
-        <v>60096.58</v>
+        <v>51347.06</v>
       </c>
       <c r="C12" s="14">
         <f>++'Completion Factors'!J26</f>
@@ -9097,7 +9097,7 @@
         <v/>
       </c>
       <c r="I12" s="14" t="n">
-        <v>57459.95916666667</v>
+        <v>56540.92916666667</v>
       </c>
       <c r="J12" s="14">
         <f>100*$G12/$I12</f>
@@ -9120,64 +9120,64 @@
         <v/>
       </c>
       <c r="S12" s="22" t="n">
-        <v>2523.67</v>
+        <v/>
       </c>
       <c r="T12" s="22" t="n">
-        <v>19426.47</v>
+        <v>27432.11</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>37346.05</v>
+        <v>39534.83</v>
       </c>
       <c r="V12" s="22" t="n">
-        <v>43830.37</v>
+        <v>42204.21</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>43854.60000000001</v>
+        <v>43690.66</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>45482.31</v>
+        <v>43850.74999999999</v>
       </c>
       <c r="Y12" s="22" t="n">
-        <v>48089.15000000001</v>
+        <v>45046.48</v>
       </c>
       <c r="Z12" s="22" t="n">
-        <v>52849.52000000001</v>
+        <v>49340.78</v>
       </c>
       <c r="AA12" s="22" t="n">
-        <v>55651.15000000001</v>
+        <v>49398.11</v>
       </c>
       <c r="AB12" s="22" t="n">
-        <v>55744.62000000001</v>
+        <v>49480.72</v>
       </c>
       <c r="AC12" s="22" t="n">
-        <v>56667.46000000001</v>
+        <v>49480.72</v>
       </c>
       <c r="AD12" s="22" t="n">
-        <v>58271.84</v>
+        <v>49494.34</v>
       </c>
       <c r="AE12" s="22" t="n">
-        <v>58271.84</v>
+        <v>49522.32000000001</v>
       </c>
       <c r="AF12" s="22" t="n">
-        <v>58271.84</v>
+        <v>49522.32000000001</v>
       </c>
       <c r="AG12" s="22" t="n">
-        <v>58271.84</v>
+        <v>49522.32000000001</v>
       </c>
       <c r="AH12" s="22" t="n">
-        <v>60096.58</v>
+        <v>51347.06</v>
       </c>
       <c r="AI12" s="22" t="n">
-        <v>60096.58</v>
+        <v>51347.06</v>
       </c>
       <c r="AJ12" s="22" t="n">
-        <v>60096.58</v>
+        <v>51347.06</v>
       </c>
       <c r="AK12" s="22" t="n">
-        <v>60096.58</v>
+        <v>51347.06</v>
       </c>
       <c r="AL12" s="22" t="n">
-        <v>60096.58</v>
+        <v>51347.06</v>
       </c>
       <c r="AM12" s="22" t="n">
         <v/>
@@ -9200,7 +9200,7 @@
         <v/>
       </c>
       <c r="B13" s="14" t="n">
-        <v>51347.06</v>
+        <v>66846.51999999999</v>
       </c>
       <c r="C13" s="14">
         <f>++'Completion Factors'!J25</f>
@@ -9224,7 +9224,7 @@
         <v/>
       </c>
       <c r="I13" s="14" t="n">
-        <v>56540.92916666667</v>
+        <v>55091.66583333333</v>
       </c>
       <c r="J13" s="14">
         <f>100*$G13/$I13</f>
@@ -9247,61 +9247,61 @@
         <v/>
       </c>
       <c r="S13" s="22" t="n">
-        <v/>
+        <v>9447.17</v>
       </c>
       <c r="T13" s="22" t="n">
-        <v>27432.11</v>
+        <v>36467.02</v>
       </c>
       <c r="U13" s="22" t="n">
-        <v>39534.83</v>
+        <v>41595.71999999999</v>
       </c>
       <c r="V13" s="22" t="n">
-        <v>42204.21</v>
+        <v>41975.63</v>
       </c>
       <c r="W13" s="22" t="n">
-        <v>43690.66</v>
+        <v>43607.63</v>
       </c>
       <c r="X13" s="22" t="n">
-        <v>43850.74999999999</v>
+        <v>58981.16</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>45046.48</v>
+        <v>59445.92</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>49340.78</v>
+        <v>61196.87</v>
       </c>
       <c r="AA13" s="22" t="n">
-        <v>49398.11</v>
+        <v>60122.50999999999</v>
       </c>
       <c r="AB13" s="22" t="n">
-        <v>49480.72</v>
+        <v>66452.07999999999</v>
       </c>
       <c r="AC13" s="22" t="n">
-        <v>49480.72</v>
+        <v>66476.04999999999</v>
       </c>
       <c r="AD13" s="22" t="n">
-        <v>49494.34</v>
+        <v>66509.48999999999</v>
       </c>
       <c r="AE13" s="22" t="n">
-        <v>49522.32000000001</v>
+        <v>66648.59999999999</v>
       </c>
       <c r="AF13" s="22" t="n">
-        <v>49522.32000000001</v>
+        <v>66688.32999999999</v>
       </c>
       <c r="AG13" s="22" t="n">
-        <v>49522.32000000001</v>
+        <v>66688.32999999999</v>
       </c>
       <c r="AH13" s="22" t="n">
-        <v>51347.06</v>
+        <v>66846.51999999999</v>
       </c>
       <c r="AI13" s="22" t="n">
-        <v>51347.06</v>
+        <v>66846.51999999999</v>
       </c>
       <c r="AJ13" s="22" t="n">
-        <v>51347.06</v>
+        <v>66846.51999999999</v>
       </c>
       <c r="AK13" s="22" t="n">
-        <v>51347.06</v>
+        <v>66846.51999999999</v>
       </c>
       <c r="AL13" s="22" t="n">
         <v/>
@@ -9327,7 +9327,7 @@
         <v/>
       </c>
       <c r="B14" s="14" t="n">
-        <v>66846.51999999999</v>
+        <v>48427.31</v>
       </c>
       <c r="C14" s="14">
         <f>++'Completion Factors'!J24</f>
@@ -9351,7 +9351,7 @@
         <v/>
       </c>
       <c r="I14" s="14" t="n">
-        <v>55091.66583333333</v>
+        <v>54461.23416666667</v>
       </c>
       <c r="J14" s="14">
         <f>100*$G14/$I14</f>
@@ -9374,58 +9374,58 @@
         <v/>
       </c>
       <c r="S14" s="22" t="n">
-        <v>9447.17</v>
+        <v>906.87</v>
       </c>
       <c r="T14" s="22" t="n">
-        <v>36467.02</v>
+        <v>1160.65</v>
       </c>
       <c r="U14" s="22" t="n">
-        <v>41595.71999999999</v>
+        <v>1324.13</v>
       </c>
       <c r="V14" s="22" t="n">
-        <v>41975.63</v>
+        <v>3891.08</v>
       </c>
       <c r="W14" s="22" t="n">
-        <v>43607.63</v>
+        <v>34856.83</v>
       </c>
       <c r="X14" s="22" t="n">
-        <v>58981.16</v>
+        <v>44312.81</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>59445.92</v>
+        <v>46442.97</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>61196.87</v>
+        <v>46651.28</v>
       </c>
       <c r="AA14" s="22" t="n">
-        <v>60122.50999999999</v>
+        <v>48388.68</v>
       </c>
       <c r="AB14" s="22" t="n">
-        <v>66452.07999999999</v>
+        <v>48425.42</v>
       </c>
       <c r="AC14" s="22" t="n">
-        <v>66476.04999999999</v>
+        <v>48425.42</v>
       </c>
       <c r="AD14" s="22" t="n">
-        <v>66509.48999999999</v>
+        <v>48425.42</v>
       </c>
       <c r="AE14" s="22" t="n">
-        <v>66648.59999999999</v>
+        <v>48427.31</v>
       </c>
       <c r="AF14" s="22" t="n">
-        <v>66688.32999999999</v>
+        <v>48427.31</v>
       </c>
       <c r="AG14" s="22" t="n">
-        <v>66688.32999999999</v>
+        <v>48427.31</v>
       </c>
       <c r="AH14" s="22" t="n">
-        <v>66846.51999999999</v>
+        <v>48427.31</v>
       </c>
       <c r="AI14" s="22" t="n">
-        <v>66846.51999999999</v>
+        <v>48427.31</v>
       </c>
       <c r="AJ14" s="22" t="n">
-        <v>66846.51999999999</v>
+        <v>48427.31</v>
       </c>
       <c r="AK14" s="22" t="n">
         <v/>
@@ -9454,7 +9454,7 @@
         <v/>
       </c>
       <c r="B15" s="14" t="n">
-        <v>48427.31</v>
+        <v>36408.87000000001</v>
       </c>
       <c r="C15" s="14">
         <f>++'Completion Factors'!J23</f>
@@ -9478,7 +9478,7 @@
         <v/>
       </c>
       <c r="I15" s="14" t="n">
-        <v>54461.23416666667</v>
+        <v>52255.39000000001</v>
       </c>
       <c r="J15" s="14">
         <f>100*$G15/$I15</f>
@@ -9501,55 +9501,55 @@
         <v/>
       </c>
       <c r="S15" s="22" t="n">
-        <v>906.87</v>
+        <v/>
       </c>
       <c r="T15" s="22" t="n">
-        <v>1160.65</v>
+        <v/>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1324.13</v>
+        <v>160.96</v>
       </c>
       <c r="V15" s="22" t="n">
-        <v>3891.08</v>
+        <v>29519.89</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>34856.83</v>
+        <v>32283.76</v>
       </c>
       <c r="X15" s="22" t="n">
-        <v>44312.81</v>
+        <v>34060.82</v>
       </c>
       <c r="Y15" s="22" t="n">
-        <v>46442.97</v>
+        <v>34371.6</v>
       </c>
       <c r="Z15" s="22" t="n">
-        <v>46651.28</v>
+        <v>34507.9</v>
       </c>
       <c r="AA15" s="22" t="n">
-        <v>48388.68</v>
+        <v>34538.41</v>
       </c>
       <c r="AB15" s="22" t="n">
-        <v>48425.42</v>
+        <v>34701.92000000001</v>
       </c>
       <c r="AC15" s="22" t="n">
-        <v>48425.42</v>
+        <v>36364.81</v>
       </c>
       <c r="AD15" s="22" t="n">
-        <v>48425.42</v>
+        <v>36373.79000000001</v>
       </c>
       <c r="AE15" s="22" t="n">
-        <v>48427.31</v>
+        <v>36373.79000000001</v>
       </c>
       <c r="AF15" s="22" t="n">
-        <v>48427.31</v>
+        <v>36373.79000000001</v>
       </c>
       <c r="AG15" s="22" t="n">
-        <v>48427.31</v>
+        <v>36408.87000000001</v>
       </c>
       <c r="AH15" s="22" t="n">
-        <v>48427.31</v>
+        <v>36408.87000000001</v>
       </c>
       <c r="AI15" s="22" t="n">
-        <v>48427.31</v>
+        <v>36408.87000000001</v>
       </c>
       <c r="AJ15" s="22" t="n">
         <v/>
@@ -9581,7 +9581,7 @@
         <v/>
       </c>
       <c r="B16" s="14" t="n">
-        <v>36408.87000000001</v>
+        <v>45297.04</v>
       </c>
       <c r="C16" s="14">
         <f>++'Completion Factors'!J22</f>
@@ -9605,7 +9605,7 @@
         <v/>
       </c>
       <c r="I16" s="14" t="n">
-        <v>52255.39000000001</v>
+        <v>50900.79749999999</v>
       </c>
       <c r="J16" s="14">
         <f>100*$G16/$I16</f>
@@ -9634,46 +9634,46 @@
         <v/>
       </c>
       <c r="U16" s="22" t="n">
-        <v>160.96</v>
+        <v>28830.24</v>
       </c>
       <c r="V16" s="22" t="n">
-        <v>29519.89</v>
+        <v>36622.81</v>
       </c>
       <c r="W16" s="22" t="n">
-        <v>32283.76</v>
+        <v>38522.2</v>
       </c>
       <c r="X16" s="22" t="n">
-        <v>34060.82</v>
+        <v>40726.93</v>
       </c>
       <c r="Y16" s="22" t="n">
-        <v>34371.6</v>
+        <v>41168.84</v>
       </c>
       <c r="Z16" s="22" t="n">
-        <v>34507.9</v>
+        <v>42825.79</v>
       </c>
       <c r="AA16" s="22" t="n">
-        <v>34538.41</v>
+        <v>43317.62</v>
       </c>
       <c r="AB16" s="22" t="n">
-        <v>34701.92000000001</v>
+        <v>43367.9</v>
       </c>
       <c r="AC16" s="22" t="n">
-        <v>36364.81</v>
+        <v>43487.12</v>
       </c>
       <c r="AD16" s="22" t="n">
-        <v>36373.79000000001</v>
+        <v>43487.12</v>
       </c>
       <c r="AE16" s="22" t="n">
-        <v>36373.79000000001</v>
+        <v>43606.34</v>
       </c>
       <c r="AF16" s="22" t="n">
-        <v>36373.79000000001</v>
+        <v>43606.34</v>
       </c>
       <c r="AG16" s="22" t="n">
-        <v>36408.87000000001</v>
+        <v>45297.04</v>
       </c>
       <c r="AH16" s="22" t="n">
-        <v>36408.87000000001</v>
+        <v>45297.04</v>
       </c>
       <c r="AI16" s="22" t="n">
         <v/>
@@ -9708,7 +9708,7 @@
         <v/>
       </c>
       <c r="B17" s="14" t="n">
-        <v>45297.04</v>
+        <v>42761.97</v>
       </c>
       <c r="C17" s="14">
         <f>++'Completion Factors'!J21</f>
@@ -9732,7 +9732,7 @@
         <v/>
       </c>
       <c r="I17" s="14" t="n">
-        <v>50900.79749999999</v>
+        <v>49854.32166666666</v>
       </c>
       <c r="J17" s="14">
         <f>100*$G17/$I17</f>
@@ -9758,46 +9758,46 @@
         <v/>
       </c>
       <c r="T17" s="22" t="n">
-        <v/>
+        <v>25323.17</v>
       </c>
       <c r="U17" s="22" t="n">
-        <v>28830.24</v>
+        <v>34064.59</v>
       </c>
       <c r="V17" s="22" t="n">
-        <v>36622.81</v>
+        <v>35156.96000000001</v>
       </c>
       <c r="W17" s="22" t="n">
-        <v>38522.2</v>
+        <v>35556.07000000001</v>
       </c>
       <c r="X17" s="22" t="n">
-        <v>40726.93</v>
+        <v>39154.2</v>
       </c>
       <c r="Y17" s="22" t="n">
-        <v>41168.84</v>
+        <v>40916.8</v>
       </c>
       <c r="Z17" s="22" t="n">
-        <v>42825.79</v>
+        <v>41100.68</v>
       </c>
       <c r="AA17" s="22" t="n">
-        <v>43317.62</v>
+        <v>41100.68</v>
       </c>
       <c r="AB17" s="22" t="n">
-        <v>43367.9</v>
+        <v>41100.68</v>
       </c>
       <c r="AC17" s="22" t="n">
-        <v>43487.12</v>
+        <v>42761.97</v>
       </c>
       <c r="AD17" s="22" t="n">
-        <v>43487.12</v>
+        <v>42761.97</v>
       </c>
       <c r="AE17" s="22" t="n">
-        <v>43606.34</v>
+        <v>42761.97</v>
       </c>
       <c r="AF17" s="22" t="n">
-        <v>43606.34</v>
+        <v>42761.97</v>
       </c>
       <c r="AG17" s="22" t="n">
-        <v>45297.04</v>
+        <v>42761.97</v>
       </c>
       <c r="AH17" s="22" t="n">
         <v/>
@@ -9835,7 +9835,7 @@
         <v/>
       </c>
       <c r="B18" s="14" t="n">
-        <v>42761.96999999999</v>
+        <v>26518.29</v>
       </c>
       <c r="C18" s="14">
         <f>++'Completion Factors'!J20</f>
@@ -9859,7 +9859,7 @@
         <v/>
       </c>
       <c r="I18" s="14" t="n">
-        <v>49854.32166666666</v>
+        <v>49175.245</v>
       </c>
       <c r="J18" s="14">
         <f>100*$G18/$I18</f>
@@ -9882,46 +9882,46 @@
         <v/>
       </c>
       <c r="S18" s="22" t="n">
-        <v/>
+        <v>994.1999999999999</v>
       </c>
       <c r="T18" s="22" t="n">
-        <v>25323.17</v>
+        <v>17589.79</v>
       </c>
       <c r="U18" s="22" t="n">
-        <v>34064.59</v>
+        <v>20117.21</v>
       </c>
       <c r="V18" s="22" t="n">
-        <v>35156.96</v>
+        <v>20577.91</v>
       </c>
       <c r="W18" s="22" t="n">
-        <v>35556.07</v>
+        <v>20910.06</v>
       </c>
       <c r="X18" s="22" t="n">
-        <v>39154.2</v>
+        <v>21375.97</v>
       </c>
       <c r="Y18" s="22" t="n">
-        <v>40916.8</v>
+        <v>21537.12</v>
       </c>
       <c r="Z18" s="22" t="n">
-        <v>41100.67999999999</v>
+        <v>24858.83</v>
       </c>
       <c r="AA18" s="22" t="n">
-        <v>41100.67999999999</v>
+        <v>24860.51</v>
       </c>
       <c r="AB18" s="22" t="n">
-        <v>41100.67999999999</v>
+        <v>26518.16</v>
       </c>
       <c r="AC18" s="22" t="n">
-        <v>42761.96999999999</v>
+        <v>26518.16</v>
       </c>
       <c r="AD18" s="22" t="n">
-        <v>42761.96999999999</v>
+        <v>26518.29</v>
       </c>
       <c r="AE18" s="22" t="n">
-        <v>42761.96999999999</v>
+        <v>26518.29</v>
       </c>
       <c r="AF18" s="22" t="n">
-        <v>42761.96999999999</v>
+        <v>26518.29</v>
       </c>
       <c r="AG18" s="22" t="n">
         <v/>
@@ -9962,7 +9962,7 @@
         <v/>
       </c>
       <c r="B19" s="14" t="n">
-        <v>26518.29</v>
+        <v>29105.73</v>
       </c>
       <c r="C19" s="14">
         <f>++'Completion Factors'!J19</f>
@@ -9986,7 +9986,7 @@
         <v/>
       </c>
       <c r="I19" s="14" t="n">
-        <v>49175.245</v>
+        <v>48059.1575</v>
       </c>
       <c r="J19" s="14">
         <f>100*$G19/$I19</f>
@@ -10012,43 +10012,43 @@
         <v/>
       </c>
       <c r="S19" s="22" t="n">
-        <v>994.2</v>
+        <v>2283.04</v>
       </c>
       <c r="T19" s="22" t="n">
-        <v>17589.79</v>
+        <v>15208.56</v>
       </c>
       <c r="U19" s="22" t="n">
-        <v>20117.21</v>
+        <v>21936.22</v>
       </c>
       <c r="V19" s="22" t="n">
-        <v>20577.91</v>
+        <v>23267.22</v>
       </c>
       <c r="W19" s="22" t="n">
-        <v>20910.06</v>
+        <v>23451.05</v>
       </c>
       <c r="X19" s="22" t="n">
-        <v>21375.97</v>
+        <v>26995.36</v>
       </c>
       <c r="Y19" s="22" t="n">
-        <v>21537.12</v>
+        <v>29039.32</v>
       </c>
       <c r="Z19" s="22" t="n">
-        <v>24858.83</v>
+        <v>29039.32</v>
       </c>
       <c r="AA19" s="22" t="n">
-        <v>24860.51</v>
+        <v>29105.73</v>
       </c>
       <c r="AB19" s="22" t="n">
-        <v>26518.16</v>
+        <v>29105.73</v>
       </c>
       <c r="AC19" s="22" t="n">
-        <v>26518.16</v>
+        <v>29105.73</v>
       </c>
       <c r="AD19" s="22" t="n">
-        <v>26518.29</v>
+        <v>29105.73</v>
       </c>
       <c r="AE19" s="22" t="n">
-        <v>26518.29</v>
+        <v>29105.73</v>
       </c>
       <c r="AF19" s="22" t="n">
         <v/>
@@ -10092,7 +10092,7 @@
         <v/>
       </c>
       <c r="B20" s="14" t="n">
-        <v>29105.73</v>
+        <v>39815.82</v>
       </c>
       <c r="C20" s="14">
         <f>++'Completion Factors'!J18</f>
@@ -10116,7 +10116,7 @@
         <v/>
       </c>
       <c r="I20" s="14" t="n">
-        <v>48059.1575</v>
+        <v>46286.77583333334</v>
       </c>
       <c r="J20" s="14">
         <f>100*$G20/$I20</f>
@@ -10148,40 +10148,40 @@
         <v/>
       </c>
       <c r="S20" s="22" t="n">
-        <v>2283.04</v>
+        <v>6019.08</v>
       </c>
       <c r="T20" s="22" t="n">
-        <v>15208.56</v>
+        <v>23735.5</v>
       </c>
       <c r="U20" s="22" t="n">
-        <v>21936.22</v>
+        <v>32489.8</v>
       </c>
       <c r="V20" s="22" t="n">
-        <v>23267.22</v>
+        <v>33466.11</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>23451.05</v>
+        <v>33909.9</v>
       </c>
       <c r="X20" s="22" t="n">
-        <v>26995.36</v>
+        <v>37941.37</v>
       </c>
       <c r="Y20" s="22" t="n">
-        <v>29039.32</v>
+        <v>39674.54</v>
       </c>
       <c r="Z20" s="22" t="n">
-        <v>29039.32</v>
+        <v>39680.75</v>
       </c>
       <c r="AA20" s="22" t="n">
-        <v>29105.73</v>
+        <v>39696.84</v>
       </c>
       <c r="AB20" s="22" t="n">
-        <v>29105.73</v>
+        <v>39705.94</v>
       </c>
       <c r="AC20" s="22" t="n">
-        <v>29105.73</v>
+        <v>39800.13</v>
       </c>
       <c r="AD20" s="22" t="n">
-        <v>29105.73</v>
+        <v>39815.82</v>
       </c>
       <c r="AE20" s="22" t="n">
         <v/>
@@ -10228,7 +10228,7 @@
         <v/>
       </c>
       <c r="B21" s="14" t="n">
-        <v>39800.13</v>
+        <v>34519.11</v>
       </c>
       <c r="C21" s="14">
         <f>++'Completion Factors'!J17</f>
@@ -10252,7 +10252,7 @@
         <v/>
       </c>
       <c r="I21" s="14" t="n">
-        <v>46286.77583333334</v>
+        <v>45773.54583333334</v>
       </c>
       <c r="J21" s="14">
         <f>100*$G21/$I21</f>
@@ -10284,37 +10284,37 @@
         <v/>
       </c>
       <c r="S21" s="22" t="n">
-        <v>6019.08</v>
+        <v>3595.3</v>
       </c>
       <c r="T21" s="22" t="n">
-        <v>23735.5</v>
+        <v>20422.31</v>
       </c>
       <c r="U21" s="22" t="n">
-        <v>32489.8</v>
+        <v>22660.1</v>
       </c>
       <c r="V21" s="22" t="n">
-        <v>33466.11</v>
+        <v>24101.47</v>
       </c>
       <c r="W21" s="22" t="n">
-        <v>33909.9</v>
+        <v>28329.59</v>
       </c>
       <c r="X21" s="22" t="n">
-        <v>37941.37</v>
+        <v>28501.39</v>
       </c>
       <c r="Y21" s="22" t="n">
-        <v>39674.54</v>
+        <v>31164.86</v>
       </c>
       <c r="Z21" s="22" t="n">
-        <v>39680.75</v>
+        <v>32887.11</v>
       </c>
       <c r="AA21" s="22" t="n">
-        <v>39696.84</v>
+        <v>32887.11</v>
       </c>
       <c r="AB21" s="22" t="n">
-        <v>39705.94</v>
+        <v>32887.11</v>
       </c>
       <c r="AC21" s="22" t="n">
-        <v>39800.13</v>
+        <v>34519.11</v>
       </c>
       <c r="AD21" s="22" t="n">
         <v/>
@@ -10364,7 +10364,7 @@
         <v/>
       </c>
       <c r="B22" s="14" t="n">
-        <v>32887.11</v>
+        <v>37970.45</v>
       </c>
       <c r="C22" s="14">
         <f>++'Completion Factors'!J16</f>
@@ -10388,7 +10388,7 @@
         <v/>
       </c>
       <c r="I22" s="14" t="n">
-        <v>45773.54583333334</v>
+        <v>44920.35</v>
       </c>
       <c r="J22" s="14">
         <f>100*$G22/$I22</f>
@@ -10420,34 +10420,34 @@
         <v/>
       </c>
       <c r="S22" s="22" t="n">
-        <v>3595.3</v>
+        <v>4835.89</v>
       </c>
       <c r="T22" s="22" t="n">
-        <v>20422.31</v>
+        <v>23820.54</v>
       </c>
       <c r="U22" s="22" t="n">
-        <v>22660.1</v>
+        <v>29890.93</v>
       </c>
       <c r="V22" s="22" t="n">
-        <v>24101.47</v>
+        <v>32312.82</v>
       </c>
       <c r="W22" s="22" t="n">
-        <v>28329.59</v>
+        <v>32748.61</v>
       </c>
       <c r="X22" s="22" t="n">
-        <v>28501.39</v>
+        <v>36240.37</v>
       </c>
       <c r="Y22" s="22" t="n">
-        <v>31164.86</v>
+        <v>37876.12</v>
       </c>
       <c r="Z22" s="22" t="n">
-        <v>32887.11</v>
+        <v>37943.56</v>
       </c>
       <c r="AA22" s="22" t="n">
-        <v>32887.11</v>
+        <v>37970.45</v>
       </c>
       <c r="AB22" s="22" t="n">
-        <v>32887.11</v>
+        <v>37970.45</v>
       </c>
       <c r="AC22" s="22" t="n">
         <v/>
@@ -10500,7 +10500,7 @@
         <v/>
       </c>
       <c r="B23" s="14" t="n">
-        <v>37994.93</v>
+        <v>25348.9</v>
       </c>
       <c r="C23" s="14">
         <f>++'Completion Factors'!J15</f>
@@ -10524,7 +10524,7 @@
         <v/>
       </c>
       <c r="I23" s="14" t="n">
-        <v>44920.35</v>
+        <v>43901.69</v>
       </c>
       <c r="J23" s="14">
         <f>100*$G23/$I23</f>
@@ -10556,31 +10556,31 @@
         <v/>
       </c>
       <c r="S23" s="22" t="n">
-        <v>4835.89</v>
+        <v>1157.68</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>23820.54</v>
+        <v>11123.92</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>29890.93</v>
+        <v>19381.91</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>32337.3</v>
+        <v>23192.31</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>32773.09</v>
+        <v>23395.77</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>36264.85</v>
+        <v>23584.4</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>37900.6</v>
+        <v>25216.4</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>37968.04</v>
+        <v>25348.9</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>37994.93</v>
+        <v>25348.9</v>
       </c>
       <c r="AB23" s="22" t="n">
         <v/>
@@ -10636,7 +10636,7 @@
         <v/>
       </c>
       <c r="B24" s="14" t="n">
-        <v>25348.9</v>
+        <v>27466.9</v>
       </c>
       <c r="C24" s="14">
         <f>++'Completion Factors'!J14</f>
@@ -10662,7 +10662,7 @@
         <v/>
       </c>
       <c r="I24" s="14" t="n">
-        <v>43901.69</v>
+        <v>43909.92000000001</v>
       </c>
       <c r="J24" s="14">
         <f>100*$G24/$I24</f>
@@ -10694,28 +10694,28 @@
         <v/>
       </c>
       <c r="S24" s="22" t="n">
-        <v>1157.68</v>
+        <v/>
       </c>
       <c r="T24" s="22" t="n">
-        <v>11123.92</v>
+        <v>21558.96</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>19381.91</v>
+        <v>23245.75</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>23192.31</v>
+        <v>25400.62</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>23395.77</v>
+        <v>25606.31</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>23584.4</v>
+        <v>25690.96</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>25216.4</v>
+        <v>25716.31</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>25348.9</v>
+        <v>27466.9</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v/>
@@ -10774,7 +10774,7 @@
         <v/>
       </c>
       <c r="B25" s="14" t="n">
-        <v>25716.31</v>
+        <v>46212.11</v>
       </c>
       <c r="C25" s="14">
         <f>++'Completion Factors'!J13</f>
@@ -10800,7 +10800,7 @@
         <v/>
       </c>
       <c r="I25" s="14" t="n">
-        <v>43909.92000000001</v>
+        <v>41547.08</v>
       </c>
       <c r="J25" s="14">
         <f>100*$G25/$I25</f>
@@ -10832,25 +10832,25 @@
         <v/>
       </c>
       <c r="S25" s="22" t="n">
-        <v/>
+        <v>5894.42</v>
       </c>
       <c r="T25" s="22" t="n">
-        <v>21558.96</v>
+        <v>30700.98</v>
       </c>
       <c r="U25" s="22" t="n">
-        <v>23245.75</v>
+        <v>39215.15</v>
       </c>
       <c r="V25" s="22" t="n">
-        <v>25400.62</v>
+        <v>39903.01</v>
       </c>
       <c r="W25" s="22" t="n">
-        <v>25606.31</v>
+        <v>40199.09</v>
       </c>
       <c r="X25" s="22" t="n">
-        <v>25690.96</v>
+        <v>40346.11</v>
       </c>
       <c r="Y25" s="22" t="n">
-        <v>25716.31</v>
+        <v>46212.11</v>
       </c>
       <c r="Z25" s="22" t="n">
         <v/>
@@ -10912,7 +10912,7 @@
         <v/>
       </c>
       <c r="B26" s="14" t="n">
-        <v>40346.11</v>
+        <v>36505.15</v>
       </c>
       <c r="C26" s="14">
         <f>++'Completion Factors'!J12</f>
@@ -10938,7 +10938,7 @@
         <v/>
       </c>
       <c r="I26" s="14" t="n">
-        <v>41547.08</v>
+        <v>40847.31416666667</v>
       </c>
       <c r="J26" s="14">
         <f>100*$G26/$I26</f>
@@ -10970,22 +10970,22 @@
         <v/>
       </c>
       <c r="S26" s="22" t="n">
-        <v>5894.42</v>
+        <v>2927.63</v>
       </c>
       <c r="T26" s="22" t="n">
-        <v>30700.98</v>
+        <v>31963.21</v>
       </c>
       <c r="U26" s="22" t="n">
-        <v>39215.15</v>
+        <v>35588.93</v>
       </c>
       <c r="V26" s="22" t="n">
-        <v>39903.01</v>
+        <v>36424.86</v>
       </c>
       <c r="W26" s="22" t="n">
-        <v>40199.09</v>
+        <v>36505.15</v>
       </c>
       <c r="X26" s="22" t="n">
-        <v>40346.11</v>
+        <v>36505.15</v>
       </c>
       <c r="Y26" s="22" t="n">
         <v/>
@@ -11050,7 +11050,7 @@
         <v/>
       </c>
       <c r="B27" s="14" t="n">
-        <v>36505.15</v>
+        <v>33632.72</v>
       </c>
       <c r="C27" s="14">
         <f>++'Completion Factors'!J11</f>
@@ -11076,7 +11076,7 @@
         <v/>
       </c>
       <c r="I27" s="14" t="n">
-        <v>40847.31416666667</v>
+        <v>39756.25583333334</v>
       </c>
       <c r="J27" s="14">
         <f>100*$G27/$I27</f>
@@ -11108,19 +11108,19 @@
         <v/>
       </c>
       <c r="S27" s="22" t="n">
-        <v>2927.63</v>
+        <v>1933.83</v>
       </c>
       <c r="T27" s="22" t="n">
-        <v>31963.21</v>
+        <v>25835.71</v>
       </c>
       <c r="U27" s="22" t="n">
-        <v>35588.93</v>
+        <v>32152.89</v>
       </c>
       <c r="V27" s="22" t="n">
-        <v>36424.86</v>
+        <v>33287.8</v>
       </c>
       <c r="W27" s="22" t="n">
-        <v>36505.15</v>
+        <v>33632.72</v>
       </c>
       <c r="X27" s="22" t="n">
         <v/>
@@ -11188,7 +11188,7 @@
         <v/>
       </c>
       <c r="B28" s="14" t="n">
-        <v>33287.8</v>
+        <v>28654.85</v>
       </c>
       <c r="C28" s="14">
         <f>++'Completion Factors'!J10</f>
@@ -11214,7 +11214,7 @@
         <v/>
       </c>
       <c r="I28" s="14" t="n">
-        <v>39756.25583333334</v>
+        <v>38551.04583333333</v>
       </c>
       <c r="J28" s="14">
         <f>100*$G28/$I28</f>
@@ -11246,16 +11246,16 @@
         <v/>
       </c>
       <c r="S28" s="22" t="n">
-        <v>1933.83</v>
+        <v>2856.96</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>25835.71</v>
+        <v>22997.08</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>32152.89</v>
+        <v>26326.89</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>33287.8</v>
+        <v>28654.85</v>
       </c>
       <c r="W28" s="22" t="n">
         <v/>
@@ -11326,7 +11326,7 @@
         <v/>
       </c>
       <c r="B29" s="14" t="n">
-        <v>26326.89</v>
+        <v>28568.57</v>
       </c>
       <c r="C29" s="14">
         <f>++'Completion Factors'!J9</f>
@@ -11353,7 +11353,7 @@
         <v/>
       </c>
       <c r="I29" s="14" t="n">
-        <v>38551.04583333333</v>
+        <v>36219.39166666667</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>100</v>
@@ -11384,13 +11384,13 @@
         <v/>
       </c>
       <c r="S29" s="22" t="n">
-        <v>2856.96</v>
+        <v>4063.31</v>
       </c>
       <c r="T29" s="22" t="n">
-        <v>22997.08</v>
+        <v>22264.15</v>
       </c>
       <c r="U29" s="22" t="n">
-        <v>26326.89</v>
+        <v>28568.57</v>
       </c>
       <c r="V29" s="22" t="n">
         <v/>
@@ -11464,7 +11464,7 @@
         <v/>
       </c>
       <c r="B30" s="14" t="n">
-        <v>22264.15</v>
+        <v>22584.13</v>
       </c>
       <c r="C30" s="14">
         <f>++'Completion Factors'!J8</f>
@@ -11491,7 +11491,7 @@
         <v/>
       </c>
       <c r="I30" s="14" t="n">
-        <v>36219.39166666667</v>
+        <v>35667.90166666666</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>100</v>
@@ -11522,10 +11522,10 @@
         <v/>
       </c>
       <c r="S30" s="22" t="n">
-        <v>4063.31</v>
+        <v>3418.49</v>
       </c>
       <c r="T30" s="22" t="n">
-        <v>22264.15</v>
+        <v>22584.13</v>
       </c>
       <c r="U30" s="22" t="n">
         <v/>
@@ -11602,7 +11602,7 @@
         <v/>
       </c>
       <c r="B31" s="14" t="n">
-        <v>3418.49</v>
+        <v>4173.89</v>
       </c>
       <c r="C31" s="14">
         <f>+'Completion Factors'!J7</f>
@@ -11629,7 +11629,7 @@
         <v/>
       </c>
       <c r="I31" s="14" t="n">
-        <v>35667.90166666666</v>
+        <v>35053.94166666667</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>100</v>
@@ -11660,7 +11660,7 @@
         <v/>
       </c>
       <c r="S31" s="22" t="n">
-        <v>3418.49</v>
+        <v>4173.89</v>
       </c>
       <c r="T31" s="22" t="n">
         <v/>
